--- a/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Cerebellum_UNIQUE.xlsx
+++ b/MOUSE BRAIN PROTEOME HRMS/UNIQUE/Cerebellum_UNIQUE.xlsx
@@ -14,966 +14,1926 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="320">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="640" uniqueCount="640">
   <si>
     <t>Accession Name</t>
   </si>
   <si>
+    <t>Description</t>
+  </si>
+  <si>
     <t>CMTA1_MOUSE</t>
   </si>
   <si>
+    <t>Calmodulin-binding transcription activator 1</t>
+  </si>
+  <si>
     <t>VIR_MOUSE</t>
   </si>
   <si>
+    <t>Protein virilizer homolog</t>
+  </si>
+  <si>
     <t>THOC2_MOUSE</t>
   </si>
   <si>
+    <t>THO complex subunit 2 (Tho2)</t>
+  </si>
+  <si>
     <t>PLHD1_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family D member 1 (PH domain-containing family D member 1)</t>
+  </si>
+  <si>
     <t>NAL12_MOUSE</t>
   </si>
   <si>
+    <t>NACHT, LRR and PYD domains-containing protein 12 (Monarch-1) (PYRIN-containing APAF1-like protein 7) (PYPAF7)</t>
+  </si>
+  <si>
     <t>CTSRD_MOUSE</t>
   </si>
   <si>
+    <t>Cation channel sperm-associated protein subunit delta (CatSper-delta) (CatSperdelta) (Transmembrane protein 146)</t>
+  </si>
+  <si>
     <t>MYO10_MOUSE</t>
   </si>
   <si>
+    <t>Unconventional myosin-X (Unconventional myosin-10)</t>
+  </si>
+  <si>
     <t>ANGP1_MOUSE</t>
   </si>
   <si>
+    <t>Angiopoietin-1 (ANG-1)</t>
+  </si>
+  <si>
     <t>CYH3_MOUSE</t>
   </si>
   <si>
+    <t>Cytohesin-3 (ARF nucleotide-binding site opener 3) (Protein ARNO3) (General receptor of phosphoinositides 1) (Grp1) (PH, SEC7 and coiled-coil domain-containing protein 3) (CLM3) (SEC7 homolog C) (mSec7-3)</t>
+  </si>
+  <si>
     <t>LRC23_MOUSE</t>
   </si>
   <si>
+    <t>Leucine-rich repeat-containing protein 23 (Leucine-rich protein B7)</t>
+  </si>
+  <si>
     <t>CNIH1_MOUSE</t>
   </si>
   <si>
+    <t>Protein cornichon homolog 1 (CNIH-1) (Cornichon family AMPA receptor auxiliary protein 1) (Protein cornichon homolog)</t>
+  </si>
+  <si>
     <t>AXIN1_MOUSE</t>
   </si>
   <si>
+    <t>Axin-1 (Axis inhibition protein 1) (Protein Fused)</t>
+  </si>
+  <si>
     <t>PER1_MOUSE</t>
   </si>
   <si>
+    <t>Period circadian protein homolog 1 (mPER1) (Circadian clock protein PERIOD 1) (Circadian pacemaker protein Rigui)</t>
+  </si>
+  <si>
     <t>BCKD_MOUSE</t>
   </si>
   <si>
+    <t>[3-methyl-2-oxobutanoate dehydrogenase [lipoamide]] kinase, mitochondrial (EC 2.7.11.4) (Branched-chain alpha-ketoacid dehydrogenase kinase) (BCKD-kinase) (BCKDHKIN)</t>
+  </si>
+  <si>
     <t>PTN20_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein phosphatase non-receptor type 20 (EC 3.1.3.48) (Testis-specific tyrosine phosphatase)</t>
+  </si>
+  <si>
     <t>SPT5H_MOUSE</t>
   </si>
   <si>
+    <t>Transcription elongation factor SPT5 (DRB sensitivity-inducing factor large subunit) (DSIF large subunit)</t>
+  </si>
+  <si>
     <t>ATF5_MOUSE</t>
   </si>
   <si>
+    <t>Cyclic AMP-dependent transcription factor ATF-5 (cAMP-dependent transcription factor ATF-5) (Activating transcription factor 5-alpha/beta) (BZIP protein ATF7) (NAP1) (NRIF3-associated protein) (Transcription factor ATFx) (Transcription factor-like protein ODA-10)</t>
+  </si>
+  <si>
     <t>GRK6_MOUSE</t>
   </si>
   <si>
+    <t>G protein-coupled receptor kinase 6 (EC 2.7.11.16) (G protein-coupled receptor kinase GRK6)</t>
+  </si>
+  <si>
     <t>AGR2_MOUSE</t>
   </si>
   <si>
+    <t>Anterior gradient protein 2 homolog (AG-2) (mAG-2) (Protein Gob-4) (Secreted cement gland protein XAG-2 homolog)</t>
+  </si>
+  <si>
     <t>NID2_MOUSE</t>
   </si>
   <si>
+    <t>Nidogen-2 (NID-2) (Entactin-2)</t>
+  </si>
+  <si>
     <t>KLC2_MOUSE</t>
   </si>
   <si>
+    <t>Kinesin light chain 2 (KLC 2)</t>
+  </si>
+  <si>
     <t>SOAT2_MOUSE</t>
   </si>
   <si>
+    <t>Sterol O-acyltransferase 2 (EC 2.3.1.26) (Acyl-coenzyme A:cholesterol acyltransferase 2) (ACAT-2) (Cholesterol acyltransferase 2)</t>
+  </si>
+  <si>
     <t>ZBT7A_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger and BTB domain-containing protein 7A (Leukemia/lymphoma-related factor) (POZ and Krueppel erythroid myeloid ontogenic factor) (POK erythroid myeloid ontogenic factor) (Pokemon)</t>
+  </si>
+  <si>
     <t>CYB_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome b (Complex III subunit 3) (Complex III subunit III) (Cytochrome b-c1 complex subunit 3) (Ubiquinol-cytochrome-c reductase complex cytochrome b subunit)</t>
+  </si>
+  <si>
     <t>HA1K_MOUSE</t>
   </si>
   <si>
+    <t>H-2 class I histocompatibility antigen, K-K alpha chain (H-2K(K))</t>
+  </si>
+  <si>
     <t>TBA1B_MOUSE</t>
   </si>
   <si>
+    <t>Tubulin alpha-1B chain (Alpha-tubulin 2) (Alpha-tubulin isotype M-alpha-2) (Tubulin alpha-2 chain) [Cleaved into: Detyrosinated tubulin alpha-1B chain]</t>
+  </si>
+  <si>
     <t>GCR_MOUSE</t>
   </si>
   <si>
+    <t>Glucocorticoid receptor (GR) (Nuclear receptor subfamily 3 group C member 1)</t>
+  </si>
+  <si>
     <t>TYSY_MOUSE</t>
   </si>
   <si>
+    <t>Thymidylate synthase (TS) (TSase) (EC 2.1.1.45)</t>
+  </si>
+  <si>
     <t>PDE11_MOUSE</t>
   </si>
   <si>
+    <t>Dual 3',5'-cyclic-AMP and -GMP phosphodiesterase 11A (EC 3.1.4.35) (EC 3.1.4.53) (cAMP and cGMP phosphodiesterase 11A)</t>
+  </si>
+  <si>
     <t>CD8B_MOUSE</t>
   </si>
   <si>
+    <t>T-cell surface glycoprotein CD8 beta chain (Lymphocyte antigen 3) (T-cell membrane glycoprotein Ly-3) (T-cell surface glycoprotein Lyt-3) (CD antigen CD8b)</t>
+  </si>
+  <si>
     <t>IL7RA_MOUSE</t>
   </si>
   <si>
+    <t>Interleukin-7 receptor subunit alpha (IL-7 receptor subunit alpha) (IL-7R subunit alpha) (IL-7R-alpha) (IL-7RA) (CD antigen CD127)</t>
+  </si>
+  <si>
     <t>HMGA1_MOUSE</t>
   </si>
   <si>
+    <t>High mobility group protein HMG-I/HMG-Y (HMG-I(Y)) (High mobility group AT-hook protein 1) (High mobility group protein A1)</t>
+  </si>
+  <si>
     <t>CATD_MOUSE</t>
   </si>
   <si>
+    <t>Cathepsin D (EC 3.4.23.5)</t>
+  </si>
+  <si>
     <t>HMGN1_MOUSE</t>
   </si>
   <si>
+    <t>Non-histone chromosomal protein HMG-14 (High mobility group nucleosome-binding domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>XRCC6_MOUSE</t>
   </si>
   <si>
+    <t>X-ray repair cross-complementing protein 6 (EC 3.6.4.-) (EC 4.2.99.-) (5'-deoxyribose-5-phosphate lyase Ku70) (5'-dRP/AP lyase Ku70) (ATP-dependent DNA helicase 2 subunit 1) (ATP-dependent DNA helicase II 70 kDa subunit) (CTC box-binding factor 75 kDa subunit) (CTC75) (CTCBF) (DNA repair protein XRCC6) (Ku autoantigen protein p70 homolog) (Ku70)</t>
+  </si>
+  <si>
     <t>NFYA_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear transcription factor Y subunit alpha (CAAT box DNA-binding protein subunit A) (Nuclear transcription factor Y subunit A) (NF-YA)</t>
+  </si>
+  <si>
     <t>CD24_MOUSE</t>
   </si>
   <si>
+    <t>Signal transducer CD24 (Lymphocyte antigen 52) (Ly-52) (M1/69-J11D heat stable antigen) (HSA) (Nectadrin) (R13-Ag) (X62 heat stable antigen) (CD antigen CD24)</t>
+  </si>
+  <si>
     <t>PDE6A_MOUSE</t>
   </si>
   <si>
+    <t>Rod cGMP-specific 3',5'-cyclic phosphodiesterase subunit alpha (GMP-PDE alpha) (EC 3.1.4.35)</t>
+  </si>
+  <si>
     <t>S6A12_MOUSE</t>
   </si>
   <si>
+    <t>Sodium- and chloride-dependent betaine transporter (Na(+)/Cl(-) betaine/GABA transporter) (Sodium- and chloride-dependent GABA transporter 2) (GAT-2) (Solute carrier family 6 member 12)</t>
+  </si>
+  <si>
     <t>OLF6_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 6 (Odorant receptor M50) (Olfactory receptor 103-16)</t>
+  </si>
+  <si>
     <t>GPR12_MOUSE</t>
   </si>
   <si>
+    <t>G-protein coupled receptor 12 (GPCR01)</t>
+  </si>
+  <si>
     <t>TRAF1_MOUSE</t>
   </si>
   <si>
+    <t>TNF receptor-associated factor 1</t>
+  </si>
+  <si>
     <t>MMP9_MOUSE</t>
   </si>
   <si>
+    <t>Matrix metalloproteinase-9 (MMP-9) (EC 3.4.24.35) (92 kDa gelatinase) (92 kDa type IV collagenase) (Gelatinase B) (GELB)</t>
+  </si>
+  <si>
     <t>TLX1_MOUSE</t>
   </si>
   <si>
+    <t>T-cell leukemia homeobox protein 1 (Homeobox TLX-1) (Homeobox protein Hox-11)</t>
+  </si>
+  <si>
     <t>ATP4B_MOUSE</t>
   </si>
   <si>
+    <t>Potassium-transporting ATPase subunit beta (Gastric H(+)/K(+) ATPase subunit beta) (Proton pump beta chain)</t>
+  </si>
+  <si>
     <t>PLCB3_MOUSE</t>
   </si>
   <si>
+    <t>1-phosphatidylinositol 4,5-bisphosphate phosphodiesterase beta-3 (EC 3.1.4.11) (Phosphoinositide phospholipase C-beta-3) (Phospholipase C-beta-3) (PLC-beta-3)</t>
+  </si>
+  <si>
     <t>ADCY7_MOUSE</t>
   </si>
   <si>
+    <t>Adenylate cyclase type 7 (EC 4.6.1.1) (ATP pyrophosphate-lyase 7) (Adenylate cyclase type VII) (Adenylyl cyclase 7)</t>
+  </si>
+  <si>
     <t>IF_MOUSE</t>
   </si>
   <si>
+    <t>Cobalamin binding intrinsic factor (Gastric intrinsic factor) (Intrinsic factor) (IF) (INF)</t>
+  </si>
+  <si>
     <t>TIA1_MOUSE</t>
   </si>
   <si>
+    <t>Nucleolysin TIA-1 (RNA-binding protein TIA-1) (T-cell-restricted intracellular antigen-1) (TIA-1)</t>
+  </si>
+  <si>
     <t>MSH6_MOUSE</t>
   </si>
   <si>
+    <t>DNA mismatch repair protein Msh6 (G/T mismatch-binding protein) (GTBP) (GTMBP) (MutS protein homolog 6) (MutS-alpha 160 kDa subunit) (p160)</t>
+  </si>
+  <si>
     <t>PMS2_MOUSE</t>
   </si>
   <si>
+    <t>Mismatch repair endonuclease PMS2 (EC 3.1.-.-) (DNA mismatch repair protein PMS2) (PMS1 protein homolog 2)</t>
+  </si>
+  <si>
     <t>PLTP_MOUSE</t>
   </si>
   <si>
+    <t>Phospholipid transfer protein (Lipid transfer protein II)</t>
+  </si>
+  <si>
     <t>CP2AC_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 2A12 (EC 1.14.14.1) (CYPIIA12) (Steroid hormones 7-alpha-hydroxylase) (Testosterone 7-alpha-hydroxylase)</t>
+  </si>
+  <si>
     <t>BACE1_MOUSE</t>
   </si>
   <si>
+    <t>Beta-secretase 1 (EC 3.4.23.46) (Aspartyl protease 2) (ASP2) (Asp 2) (Beta-site amyloid precursor protein cleaving enzyme 1) (Beta-site APP cleaving enzyme 1) (Memapsin-2) (Membrane-associated aspartic protease 2)</t>
+  </si>
+  <si>
     <t>RU2A_MOUSE</t>
   </si>
   <si>
+    <t>U2 small nuclear ribonucleoprotein A' (U2 snRNP A')</t>
+  </si>
+  <si>
     <t>VP33B_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 33B</t>
+  </si>
+  <si>
     <t>SENP1_MOUSE</t>
   </si>
   <si>
+    <t>Sentrin-specific protease 1 (EC 3.4.22.-) (SUMO-1 protease 2) (SuPr-2) (Sentrin/SUMO-specific protease SENP1)</t>
+  </si>
+  <si>
     <t>S12A3_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 12 member 3 (Na-Cl symporter) (Thiazide-sensitive sodium-chloride cotransporter)</t>
+  </si>
+  <si>
     <t>KDM2A_MOUSE</t>
   </si>
   <si>
+    <t>Lysine-specific demethylase 2A (EC 1.14.11.27) (F-box and leucine-rich repeat protein 11) (F-box/LRR-repeat protein 11) (JmjC domain-containing histone demethylation protein 1A) ([Histone-H3]-lysine-36 demethylase 1A)</t>
+  </si>
+  <si>
     <t>PSME3_MOUSE</t>
   </si>
   <si>
+    <t>Proteasome activator complex subunit 3 (11S regulator complex subunit gamma) (REG-gamma) (Activator of multicatalytic protease subunit 3) (Ki nuclear autoantigen) (Proteasome activator 28 subunit gamma) (PA28g) (PA28gamma)</t>
+  </si>
+  <si>
     <t>RUXG_MOUSE</t>
   </si>
   <si>
+    <t>Small nuclear ribonucleoprotein G (snRNP-G) (Sm protein G) (Sm-G) (SmG)</t>
+  </si>
+  <si>
     <t>RL18A_MOUSE</t>
   </si>
   <si>
+    <t>60S ribosomal protein L18a</t>
+  </si>
+  <si>
     <t>STIM1_MOUSE</t>
   </si>
   <si>
+    <t>Stromal interaction molecule 1</t>
+  </si>
+  <si>
     <t>CASP_MOUSE</t>
   </si>
   <si>
+    <t>Protein CASP</t>
+  </si>
+  <si>
     <t>IPSP_MOUSE</t>
   </si>
   <si>
+    <t>Plasma serine protease inhibitor (Plasminogen activator inhibitor 3) (PAI-3) (PAI3) (Protein C inhibitor) (PCI) (Serpin A5)</t>
+  </si>
+  <si>
     <t>UD12_MOUSE</t>
   </si>
   <si>
+    <t>UDP-glucuronosyltransferase 1-2 (UDPGT 1-2) (UGT1*2) (UGT1-02) (UGT1.2) (EC 2.4.1.17) (Bilirubin-specific UDPGT) (UDP-glucuronosyltransferase 1A2) (UGT1A2)</t>
+  </si>
+  <si>
     <t>RPA2_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase I subunit RPA2 (RNA polymerase I subunit 2) (EC 2.7.7.6) (DNA-directed RNA polymerase I 135 kDa polypeptide) (RPA135)</t>
+  </si>
+  <si>
     <t>BACH1_MOUSE</t>
   </si>
   <si>
+    <t>Transcription regulator protein BACH1 (BTB and CNC homolog 1)</t>
+  </si>
+  <si>
     <t>SPSY_MOUSE</t>
   </si>
   <si>
+    <t>Spermine synthase (SPMSY) (EC 2.5.1.22) (Spermidine aminopropyltransferase)</t>
+  </si>
+  <si>
     <t>SPTC2_MOUSE</t>
   </si>
   <si>
+    <t>Serine palmitoyltransferase 2 (EC 2.3.1.50) (Long chain base biosynthesis protein 2) (LCB 2) (Long chain base biosynthesis protein 2a) (LCB2a) (Serine-palmitoyl-CoA transferase 2) (SPT 2)</t>
+  </si>
+  <si>
     <t>MYT1L_MOUSE</t>
   </si>
   <si>
+    <t>Myelin transcription factor 1-like protein (MyT1-L) (MyT1L) (Neural zinc finger factor 1) (NZF-1) (Postmitotic neural gene 1 protein) (Zinc finger protein Png-1)</t>
+  </si>
+  <si>
     <t>RPB3_MOUSE</t>
   </si>
   <si>
+    <t>DNA-directed RNA polymerase II subunit RPB3 (RNA polymerase II subunit 3) (RNA polymerase II subunit B3) (DNA-directed RNA polymerase II 33 kDa polypeptide) (RPB33) (DNA-directed RNA polymerase II subunit C) (RPB31)</t>
+  </si>
+  <si>
     <t>G3BP1_MOUSE</t>
   </si>
   <si>
+    <t>Ras GTPase-activating protein-binding protein 1 (G3BP-1) (EC 3.6.4.12) (EC 3.6.4.13) (ATP-dependent DNA helicase VIII) (GAP SH3 domain-binding protein 1) (HDH-VIII)</t>
+  </si>
+  <si>
     <t>NFIB_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear factor 1 B-type (NF1-B) (Nuclear factor 1/B) (CCAAT-box-binding transcription factor) (CTF) (Nuclear factor I/B) (NF-I/B) (NFI-B) (TGGCA-binding protein)</t>
+  </si>
+  <si>
     <t>HAP40_MOUSE</t>
   </si>
   <si>
+    <t>40-kDa huntingtin-associated protein (CpG island protein) (Factor VIII intron 22 protein)</t>
+  </si>
+  <si>
     <t>TYY1_MOUSE</t>
   </si>
   <si>
+    <t>Transcriptional repressor protein YY1 (Delta transcription factor) (NF-E1) (UCR-motif DNA-binding protein) (Yin and yang 1) (YY-1)</t>
+  </si>
+  <si>
     <t>UFO_MOUSE</t>
   </si>
   <si>
+    <t>Tyrosine-protein kinase receptor UFO (EC 2.7.10.1) (Adhesion-related kinase)</t>
+  </si>
+  <si>
     <t>CREB1_MOUSE</t>
   </si>
   <si>
+    <t>Cyclic AMP-responsive element-binding protein 1 (CREB-1) (cAMP-responsive element-binding protein 1)</t>
+  </si>
+  <si>
     <t>NFE2_MOUSE</t>
   </si>
   <si>
+    <t>Transcription factor NF-E2 45 kDa subunit (Leucine zipper protein NF-E2) (Nuclear factor, erythroid-derived 2 45 kDa subunit) (p45 NF-E2)</t>
+  </si>
+  <si>
     <t>CHD8_MOUSE</t>
   </si>
   <si>
+    <t>Chromodomain-helicase-DNA-binding protein 8 (CHD-8) (EC 3.6.4.12) (ATP-dependent helicase CHD8) (Axis duplication inhibitor) (Duplin)</t>
+  </si>
+  <si>
     <t>F184B_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM184B</t>
+  </si>
+  <si>
     <t>GPR15_MOUSE</t>
   </si>
   <si>
+    <t>G-protein coupled receptor 15</t>
+  </si>
+  <si>
     <t>CEP76_MOUSE</t>
   </si>
   <si>
+    <t>Centrosomal protein of 76 kDa (Cep76)</t>
+  </si>
+  <si>
     <t>CC138_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 138</t>
+  </si>
+  <si>
     <t>TMM71_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 71</t>
+  </si>
+  <si>
     <t>DCC1_MOUSE</t>
   </si>
   <si>
+    <t>Sister chromatid cohesion protein DCC1 (Defective in sister chromatid cohesion protein 1 homolog)</t>
+  </si>
+  <si>
     <t>USH2A_MOUSE</t>
   </si>
   <si>
+    <t>Usherin (Usher syndrome type IIa protein homolog) (Usher syndrome type-2A protein homolog)</t>
+  </si>
+  <si>
     <t>TRPM1_MOUSE</t>
   </si>
   <si>
+    <t>Transient receptor potential cation channel subfamily M member 1 (Long transient receptor potential channel 1) (LTrpC1) (Melastatin-1)</t>
+  </si>
+  <si>
     <t>PREX2_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol 3,4,5-trisphosphate-dependent Rac exchanger 2 protein (P-Rex2) (PtdIns(3,4,5)-dependent Rac exchanger 2) (DEP domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>S11IP_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase 11-interacting protein (LKB1-interacting protein 1)</t>
+  </si>
+  <si>
     <t>PACER_MOUSE</t>
   </si>
   <si>
+    <t>Protein associated with UVRAG as autophagy enhancer (Pacer) (Protein Rubicon-like)</t>
+  </si>
+  <si>
     <t>ADAM5_MOUSE</t>
   </si>
   <si>
+    <t>Disintegrin and metalloproteinase domain-containing protein 5 (Transmembrane metalloproteinase-like, disintegrin-like, and cysteine-rich protein II) (tMDC II)</t>
+  </si>
+  <si>
     <t>OTULL_MOUSE</t>
   </si>
   <si>
+    <t>Inactive ubiquitin thioesterase OTULINL</t>
+  </si>
+  <si>
     <t>SMYD5_MOUSE</t>
   </si>
   <si>
+    <t>SET and MYND domain-containing protein 5 (EC 2.1.1.-) (Protein NN8-4AG) (Retinoic acid-induced protein 15)</t>
+  </si>
+  <si>
     <t>LIPN_MOUSE</t>
   </si>
   <si>
+    <t>Lipase member N (EC 3.1.1.-) (Lipase-like abhydrolase domain-containing protein 4)</t>
+  </si>
+  <si>
     <t>SHSA6_MOUSE</t>
   </si>
   <si>
+    <t>Protein shisa-6 (Cystine-knot AMPAR modulating protein of 52 kDa) (CKAMP52) (Shisa family member 6)</t>
+  </si>
+  <si>
     <t>S22AN_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 22 member 23</t>
+  </si>
+  <si>
     <t>MTCL1_MOUSE</t>
   </si>
   <si>
+    <t>Microtubule cross-linking factor 1 (Coiled-coil domain-containing protein 165) (PAR-1-interacting protein) (SOGA family member 2)</t>
+  </si>
+  <si>
     <t>LMOD2_MOUSE</t>
   </si>
   <si>
+    <t>Leiomodin-2 (Cardiac leiomodin) (C-LMOD) (Leiomodin)</t>
+  </si>
+  <si>
     <t>PP12C_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1 regulatory subunit 12C (Protein phosphatase 1 myosin-binding subunit of 85 kDa) (Protein phosphatase 1 myosin-binding subunit p85)</t>
+  </si>
+  <si>
     <t>GP162_MOUSE</t>
   </si>
   <si>
+    <t>Probable G-protein coupled receptor 162</t>
+  </si>
+  <si>
     <t>ACSM3_MOUSE</t>
   </si>
   <si>
+    <t>Acyl-coenzyme A synthetase ACSM3, mitochondrial (EC 6.2.1.2) (Acyl-CoA synthetase medium-chain family member 3) (Butyrate--CoA ligase 3) (Butyryl-coenzyme A synthetase 3) (Middle-chain acyl-CoA synthetase 3) (Propionate--CoA ligase) (EC 6.2.1.17) (Protein SA homolog)</t>
+  </si>
+  <si>
     <t>CEP63_MOUSE</t>
   </si>
   <si>
+    <t>Centrosomal protein of 63 kDa (Cep63)</t>
+  </si>
+  <si>
     <t>MITOK_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial potassium channel (MITOK) (Coiled-coil domain-containing protein 51)</t>
+  </si>
+  <si>
     <t>OVOS_MOUSE</t>
   </si>
   <si>
+    <t>Ovostatin homolog</t>
+  </si>
+  <si>
     <t>TRAT1_MOUSE</t>
   </si>
   <si>
+    <t>T-cell receptor-associated transmembrane adapter 1 (T-cell receptor-interacting molecule) (TRIM)</t>
+  </si>
+  <si>
     <t>HPHL1_MOUSE</t>
   </si>
   <si>
+    <t>Ferroxidase HEPHL1 (EC 1.16.3.1) (Hephaestin-like protein 1)</t>
+  </si>
+  <si>
     <t>ESF1_MOUSE</t>
   </si>
   <si>
+    <t>ESF1 homolog (ABT1-associated protein)</t>
+  </si>
+  <si>
     <t>CLUL1_MOUSE</t>
   </si>
   <si>
+    <t>Clusterin-like protein 1</t>
+  </si>
+  <si>
     <t>NDUF2_MOUSE</t>
   </si>
   <si>
+    <t>NADH dehydrogenase [ubiquinone] 1 alpha subcomplex assembly factor 2 (Mimitin) (Myc-induced mitochondrial protein) (MMTN) (NDUFA12-like protein)</t>
+  </si>
+  <si>
     <t>EHMT1_MOUSE</t>
   </si>
   <si>
+    <t>Histone-lysine N-methyltransferase EHMT1 (EC 2.1.1.-) (Euchromatic histone-lysine N-methyltransferase 1) (Eu-HMTase1) (G9a-like protein 1) (GLP) (GLP1) (Lysine N-methyltransferase 1D)</t>
+  </si>
+  <si>
     <t>HS3S6_MOUSE</t>
   </si>
   <si>
+    <t>Heparan sulfate glucosamine 3-O-sulfotransferase 6 (EC 2.8.2.23) (Heparan sulfate D-glucosaminyl 3-O-sulfotransferase 6) (3-OST-6) (Heparan sulfate 3-O-sulfotransferase 6)</t>
+  </si>
+  <si>
     <t>XKR7_MOUSE</t>
   </si>
   <si>
+    <t>XK-related protein 7</t>
+  </si>
+  <si>
     <t>SPA3G_MOUSE</t>
   </si>
   <si>
+    <t>Serine protease inhibitor A3G (Serpin A3G) (Serine protease inhibitor 2A) (Serpin 2A)</t>
+  </si>
+  <si>
     <t>VPS41_MOUSE</t>
   </si>
   <si>
+    <t>Vacuolar protein sorting-associated protein 41 homolog (VAM2 homolog) (mVAM2)</t>
+  </si>
+  <si>
     <t>OSBP2_MOUSE</t>
   </si>
   <si>
+    <t>Oxysterol-binding protein 2</t>
+  </si>
+  <si>
     <t>TEFM_MOUSE</t>
   </si>
   <si>
+    <t>Transcription elongation factor, mitochondrial</t>
+  </si>
+  <si>
     <t>UBR3_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase UBR3 (EC 2.3.2.27) (N-recognin-3) (RING-type E3 ubiquitin transferase UBR3) (Ubiquitin-protein ligase E3-alpha-3) (Ubiquitin-protein ligase E3-alpha-III) (Zinc finger protein 650)</t>
+  </si>
+  <si>
     <t>CDCP1_MOUSE</t>
   </si>
   <si>
+    <t>CUB domain-containing protein 1 (Membrane glycoprotein gp140) (Transmembrane and associated with src kinases) (CD antigen CD318)</t>
+  </si>
+  <si>
     <t>AT134_MOUSE</t>
   </si>
   <si>
+    <t>Probable cation-transporting ATPase 13A4 (EC 7.2.2.-) (P5-ATPase isoform 4)</t>
+  </si>
+  <si>
     <t>KLRA5_MOUSE</t>
   </si>
   <si>
+    <t>Killer cell lectin-like receptor 5 (Lymphocyte antigen 49e) (Ly-49e) (T-cell surface glycoprotein Ly-49E)</t>
+  </si>
+  <si>
     <t>SAMH1_MOUSE</t>
   </si>
   <si>
+    <t>Deoxynucleoside triphosphate triphosphohydrolase SAMHD1 (dNTPase) (EC 3.1.5.-) (Interferon-gamma-inducible protein Mg11) (SAM domain and HD domain-containing protein 1) (mSAMHD1)</t>
+  </si>
+  <si>
     <t>AL2CL_MOUSE</t>
   </si>
   <si>
+    <t>ALS2 C-terminal-like protein</t>
+  </si>
+  <si>
     <t>FZD3_MOUSE</t>
   </si>
   <si>
+    <t>Frizzled-3 (Fz-3) (mFz3)</t>
+  </si>
+  <si>
     <t>ARHG1_MOUSE</t>
   </si>
   <si>
+    <t>Rho guanine nucleotide exchange factor 1 (Lbc's second cousin) (Lymphoid blast crisis-like 2)</t>
+  </si>
+  <si>
     <t>K1C15_MOUSE</t>
   </si>
   <si>
+    <t>Keratin, type I cytoskeletal 15 (Cytokeratin-15) (CK-15) (Keratin-15) (K15)</t>
+  </si>
+  <si>
     <t>DDX4_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent RNA helicase DDX4 (EC 3.6.4.13) (DEAD box protein 4) (Mvh) (Vasa homolog)</t>
+  </si>
+  <si>
     <t>FOXS1_MOUSE</t>
   </si>
   <si>
+    <t>Forkhead box protein S1 (Forkhead-like 18 protein) (Forkhead-related transcription factor 10) (FREAC-10) (Transcription factor FKH-3)</t>
+  </si>
+  <si>
     <t>K1B24_MOUSE</t>
   </si>
   <si>
+    <t>Kallikrein 1-related peptidase b24 (EC 3.4.21.35) (Glandular kallikrein K24) (mGK-24) (Tissue kallikrein 24)</t>
+  </si>
+  <si>
     <t>PLA2R_MOUSE</t>
   </si>
   <si>
+    <t>Secretory phospholipase A2 receptor (PLA2-R) (PLA2R) (180 kDa secretory phospholipase A2 receptor) (M-type receptor) [Cleaved into: Soluble secretory phospholipase A2 receptor (Soluble PLA2-R) (Soluble PLA2R)]</t>
+  </si>
+  <si>
     <t>SNRPA_MOUSE</t>
   </si>
   <si>
+    <t>U1 small nuclear ribonucleoprotein A (U1 snRNP A) (U1-A) (U1A)</t>
+  </si>
+  <si>
     <t>NR0B2_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear receptor subfamily 0 group B member 2 (Orphan nuclear receptor SHP) (Small heterodimer partner)</t>
+  </si>
+  <si>
     <t>RU1C_MOUSE</t>
   </si>
   <si>
+    <t>U1 small nuclear ribonucleoprotein C (U1 snRNP C) (U1-C) (U1C)</t>
+  </si>
+  <si>
     <t>IFT52_MOUSE</t>
   </si>
   <si>
+    <t>Intraflagellar transport protein 52 homolog (Protein NGD5)</t>
+  </si>
+  <si>
     <t>INADL_MOUSE</t>
   </si>
   <si>
+    <t>InaD-like protein (Inadl protein) (Channel-interacting PDZ domain-containing protein) (Pals1-associated tight junction protein) (Protein associated to tight junctions)</t>
+  </si>
+  <si>
     <t>SURF4_MOUSE</t>
   </si>
   <si>
+    <t>Surfeit locus protein 4</t>
+  </si>
+  <si>
     <t>NLR9B_MOUSE</t>
   </si>
   <si>
+    <t>NACHT, LRR and PYD domains-containing protein 9B (NALP-delta)</t>
+  </si>
+  <si>
     <t>GRM4_MOUSE</t>
   </si>
   <si>
+    <t>Metabotropic glutamate receptor 4 (mGluR4)</t>
+  </si>
+  <si>
     <t>TASOR_MOUSE</t>
   </si>
   <si>
+    <t>Protein TASOR (Transgene activation suppressor protein)</t>
+  </si>
+  <si>
     <t>PZRN3_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase PDZRN3 (EC 2.3.2.27) (PDZ domain-containing RING finger protein 3) (RING-type E3 ubiquitin transferase PDZRN3) (Semaphorin cytoplasmic domain-associated protein 3) (Protein SEMACAP3)</t>
+  </si>
+  <si>
     <t>TGRM1_MOUSE</t>
   </si>
   <si>
+    <t>TOG array regulator of axonemal microtubules protein 1 (Crescerin-1) (Protein FAM179B)</t>
+  </si>
+  <si>
     <t>CGNL1_MOUSE</t>
   </si>
   <si>
+    <t>Cingulin-like protein 1 (Junction-associated coiled-coil protein)</t>
+  </si>
+  <si>
     <t>CNDG2_MOUSE</t>
   </si>
   <si>
+    <t>Condensin-2 complex subunit G2 (Chromosome-associated protein G2) (CAP-G2) (Leucine zipper protein 5) (More than blood protein) (Non-SMC condensin II complex subunit G2)</t>
+  </si>
+  <si>
     <t>FAKD1_MOUSE</t>
   </si>
   <si>
+    <t>FAST kinase domain-containing protein 1, mitochondrial</t>
+  </si>
+  <si>
     <t>C1QT6_MOUSE</t>
   </si>
   <si>
+    <t>Complement C1q tumor necrosis factor-related protein 6</t>
+  </si>
+  <si>
     <t>PKHG2_MOUSE</t>
   </si>
   <si>
+    <t>Pleckstrin homology domain-containing family G member 2 (PH domain-containing family G member 2) (Common site lymphoma/leukemia guanine nucleotide exchange factor) (Common site lymphoma/leukemia GEF)</t>
+  </si>
+  <si>
     <t>NIPBL_MOUSE</t>
   </si>
   <si>
+    <t>Nipped-B-like protein (Delangin homolog) (SCC2 homolog)</t>
+  </si>
+  <si>
     <t>LPCT4_MOUSE</t>
   </si>
   <si>
+    <t>Lysophospholipid acyltransferase LPCAT4 (1-acylglycerol-3-phosphate O-acyltransferase 7) (1-AGP acyltransferase 7) (1-AGPAT 7) (1-acylglycerophosphocholine O-acyltransferase) (EC 2.3.1.23) (1-acylglycerophosphoserine O-acyltransferase) (EC 2.3.1.n6) (1-alkenylglycerophosphoethanolamine O-acyltransferase) (EC 2.3.1.121) (1-alkylglycerophosphocholine O-acetyltransferase) (EC 2.3.1.67) (Acyltransferase-like 3) (Lysophosphatidylcholine acyltransferase 4) (Lysophosphatidylethanolamine acyltransferase 2) (EC 2.3.1.n7) (Plasmalogen synthase)</t>
+  </si>
+  <si>
     <t>PSD2_MOUSE</t>
   </si>
   <si>
+    <t>PH and SEC7 domain-containing protein 2 (Exchange factor for ADP-ribosylation factor guanine nucleotide factor 6 C) (Exchange factor for ARF6 C) (Pleckstrin homology and SEC7 domain-containing protein 2)</t>
+  </si>
+  <si>
     <t>NUD16_MOUSE</t>
   </si>
   <si>
+    <t>U8 snoRNA-decapping enzyme (EC 3.6.1.62) (IDP phosphatase) (IDPase) (EC 3.6.1.64) (Inosine diphosphate phosphatase) (Nucleoside diphosphate-linked moiety X motif 16) (Nudix motif 16) (m7GpppN-mRNA hydrolase)</t>
+  </si>
+  <si>
     <t>THS7B_MOUSE</t>
   </si>
   <si>
+    <t>Thrombospondin type-1 domain-containing protein 7B</t>
+  </si>
+  <si>
     <t>NEST_MOUSE</t>
   </si>
   <si>
+    <t>Nestin</t>
+  </si>
+  <si>
     <t>NWD2_MOUSE</t>
   </si>
   <si>
+    <t>NACHT and WD repeat domain-containing protein 2 (Leucine-rich repeat and WD repeat-containing protein KIAA1239)</t>
+  </si>
+  <si>
     <t>OXSR1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase OSR1 (EC 2.7.11.1) (Oxidative stress-responsive 1 protein)</t>
+  </si>
+  <si>
     <t>DRAXI_MOUSE</t>
   </si>
   <si>
+    <t>Draxin (Dorsal inhibitory axon guidance protein) (Dorsal repulsive axon guidance protein) (Neucrin)</t>
+  </si>
+  <si>
     <t>DEN5A_MOUSE</t>
   </si>
   <si>
+    <t>DENN domain-containing protein 5A (Rab6-interacting protein 1) (Rab6IP1)</t>
+  </si>
+  <si>
     <t>ARAID_MOUSE</t>
   </si>
   <si>
+    <t>All-trans retinoic acid-induced differentiation factor (Apoptosis-related protein 3) (APR-3)</t>
+  </si>
+  <si>
     <t>DAPLE_MOUSE</t>
   </si>
   <si>
+    <t>Protein Daple (Coiled-coil domain-containing protein 88C) (Dvl-associating protein with a high frequency of leucine residues)</t>
+  </si>
+  <si>
     <t>KISS1_MOUSE</t>
   </si>
   <si>
+    <t>Metastasis-suppressor KiSS-1 (Kisspeptin-1) [Cleaved into: Metastin (Kisspeptin-52); Kisspeptin-10 (Metastin45-54)]</t>
+  </si>
+  <si>
     <t>AKIB1_MOUSE</t>
   </si>
   <si>
+    <t>Ankyrin repeat and IBR domain-containing protein 1 (EC 2.3.2.31)</t>
+  </si>
+  <si>
     <t>RS9_MOUSE</t>
   </si>
   <si>
+    <t>40S ribosomal protein S9</t>
+  </si>
+  <si>
     <t>RS27_MOUSE</t>
   </si>
   <si>
+    <t>40S ribosomal protein S27</t>
+  </si>
+  <si>
     <t>MGT5B_MOUSE</t>
   </si>
   <si>
+    <t>Alpha-1,6-mannosylglycoprotein 6-beta-N-acetylglucosaminyltransferase B (EC 2.4.1.-) (EC 2.4.1.155) (Alpha-mannoside beta-1,6-N-acetylglucosaminyltransferase B) (GlcNAc-T Vb) (GNT-Vb) (Mannoside acetylglucosaminyltransferase 5B) (N-acetylglucosaminyl-transferase Vb) (N-acetylglucosaminyltransferase IX) (GNT-IX)</t>
+  </si>
+  <si>
     <t>SSH1_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase Slingshot homolog 1 (EC 3.1.3.16) (EC 3.1.3.48) (SSH-like protein 1) (SSH-1L) (mSSH-1L)</t>
+  </si>
+  <si>
     <t>CTDP1_MOUSE</t>
   </si>
   <si>
+    <t>RNA polymerase II subunit A C-terminal domain phosphatase (EC 3.1.3.16) (TFIIF-associating CTD phosphatase)</t>
+  </si>
+  <si>
     <t>LCA5_MOUSE</t>
   </si>
   <si>
+    <t>Lebercilin (Leber congenital amaurosis 5 protein homolog)</t>
+  </si>
+  <si>
     <t>SI1L2_MOUSE</t>
   </si>
   <si>
+    <t>Signal-induced proliferation-associated 1-like protein 2 (SIPA1-like protein 2)</t>
+  </si>
+  <si>
     <t>S20A2_MOUSE</t>
   </si>
   <si>
+    <t>Sodium-dependent phosphate transporter 2 (Phosphate transporter 2) (PiT-2) (Solute carrier family 20 member 2) (Type III sodium-dependent phosphate transporter)</t>
+  </si>
+  <si>
     <t>AKNA_MOUSE</t>
   </si>
   <si>
+    <t>Microtubule organization protein AKNA (AT-hook-containing transcription factor)</t>
+  </si>
+  <si>
     <t>CA174_MOUSE</t>
   </si>
   <si>
+    <t>UPF0688 protein C1orf174 homolog</t>
+  </si>
+  <si>
     <t>SMAG2_MOUSE</t>
   </si>
   <si>
+    <t>Protein Smaug homolog 2 (Smaug 2) (mSmaug2) (Sterile alpha motif domain-containing protein 4B)</t>
+  </si>
+  <si>
     <t>LMTK1_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase LMTK1 (EC 2.7.11.1) (Apoptosis-associated tyrosine kinase) (AATYK) (Brain apoptosis-associated tyrosine kinase) (Lemur tyrosine kinase 1)</t>
+  </si>
+  <si>
     <t>TRRAP_MOUSE</t>
   </si>
   <si>
+    <t>Transformation/transcription domain-associated protein (Tra1 homolog)</t>
+  </si>
+  <si>
     <t>MUC2_MOUSE</t>
   </si>
   <si>
+    <t>Mucin-2 (MUC-2) (Colonic mucin) (MCM) (Secreted gel-forming mucin) (Fragments)</t>
+  </si>
+  <si>
     <t>CC181_MOUSE</t>
   </si>
   <si>
+    <t>Coiled-coil domain-containing protein 181</t>
+  </si>
+  <si>
     <t>IREB2_MOUSE</t>
   </si>
   <si>
+    <t>Iron-responsive element-binding protein 2 (IRE-BP 2) (Iron regulatory protein 2) (IRP2)</t>
+  </si>
+  <si>
     <t>DISC1_MOUSE</t>
   </si>
   <si>
+    <t>Disrupted in schizophrenia 1 homolog</t>
+  </si>
+  <si>
     <t>DUS4_MOUSE</t>
   </si>
   <si>
+    <t>Dual specificity protein phosphatase 4 (EC 3.1.3.16) (EC 3.1.3.48)</t>
+  </si>
+  <si>
     <t>TNPO1_MOUSE</t>
   </si>
   <si>
+    <t>Transportin-1 (Importin beta-2) (Karyopherin beta-2)</t>
+  </si>
+  <si>
     <t>TYW2_MOUSE</t>
   </si>
   <si>
+    <t>tRNA wybutosine-synthesizing protein 2 homolog (tRNA-yW-synthesizing protein 2) (EC 2.5.1.114) (tRNA(Phe) (4-demethylwyosine(37)-C(7)) aminocarboxypropyltransferase)</t>
+  </si>
+  <si>
     <t>GOPC_MOUSE</t>
   </si>
   <si>
+    <t>Golgi-associated PDZ and coiled-coil motif-containing protein (PDZ protein interacting specifically with TC10) (PIST)</t>
+  </si>
+  <si>
     <t>F13A_MOUSE</t>
   </si>
   <si>
+    <t>Coagulation factor XIII A chain (Coagulation factor XIIIa) (EC 2.3.2.13) (Protein-glutamine gamma-glutamyltransferase A chain) (Transglutaminase A chain)</t>
+  </si>
+  <si>
     <t>SNX14_MOUSE</t>
   </si>
   <si>
+    <t>Sorting nexin-14</t>
+  </si>
+  <si>
     <t>CE128_MOUSE</t>
   </si>
   <si>
+    <t>Centrosomal protein of 128 kDa (Cep128)</t>
+  </si>
+  <si>
     <t>FBX28_MOUSE</t>
   </si>
   <si>
+    <t>F-box only protein 28</t>
+  </si>
+  <si>
     <t>HOOK1_MOUSE</t>
   </si>
   <si>
+    <t>Protein Hook homolog 1 (mHK1)</t>
+  </si>
+  <si>
     <t>ZC12D_MOUSE</t>
   </si>
   <si>
+    <t>Probable ribonuclease ZC3H12D (EC 3.1.-.-) (MCP-induced protein 4) (Transformed follicular lymphoma homolog) (Zinc finger CCCH domain-containing protein 12D)</t>
+  </si>
+  <si>
     <t>NUP93_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear pore complex protein Nup93 (93 kDa nucleoporin) (CBP-interacting protein 4) (Nucleoporin Nup93)</t>
+  </si>
+  <si>
     <t>RT35_MOUSE</t>
   </si>
   <si>
+    <t>28S ribosomal protein S35, mitochondrial (MRP-S35) (S35mt)</t>
+  </si>
+  <si>
     <t>RCC2_MOUSE</t>
   </si>
   <si>
+    <t>Protein RCC2</t>
+  </si>
+  <si>
     <t>RASFA_MOUSE</t>
   </si>
   <si>
+    <t>Ras association domain-containing protein 10</t>
+  </si>
+  <si>
     <t>FUCT1_MOUSE</t>
   </si>
   <si>
+    <t>GDP-fucose transporter 1 (Solute carrier family 35 member C1)</t>
+  </si>
+  <si>
     <t>TBCK_MOUSE</t>
   </si>
   <si>
+    <t>TBC domain-containing protein kinase-like protein</t>
+  </si>
+  <si>
     <t>CNKR3_MOUSE</t>
   </si>
   <si>
+    <t>Connector enhancer of kinase suppressor of ras 3 (Connector enhancer of KSR 3) (CNK homolog protein 3) (CNK3) (CNKSR family member 3) (Maguin-like protein)</t>
+  </si>
+  <si>
     <t>F214B_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM214B</t>
+  </si>
+  <si>
     <t>KLH24_MOUSE</t>
   </si>
   <si>
+    <t>Kelch-like protein 24 (Kainate receptor-interacting protein for GluR6) (KRIP6)</t>
+  </si>
+  <si>
     <t>RHG19_MOUSE</t>
   </si>
   <si>
+    <t>Rho GTPase-activating protein 19 (Rho-type GTPase-activating protein 19)</t>
+  </si>
+  <si>
     <t>PK3CB_MOUSE</t>
   </si>
   <si>
+    <t>Phosphatidylinositol 4,5-bisphosphate 3-kinase catalytic subunit beta isoform (PI3-kinase subunit beta) (PI3K-beta) (PI3Kbeta) (PtdIns-3-kinase subunit beta) (EC 2.7.1.153) (Phosphatidylinositol 4,5-bisphosphate 3-kinase 110 kDa catalytic subunit beta) (PtdIns-3-kinase subunit p110-beta) (p110beta)</t>
+  </si>
+  <si>
     <t>FA43A_MOUSE</t>
   </si>
   <si>
+    <t>Protein FAM43A</t>
+  </si>
+  <si>
     <t>GP107_MOUSE</t>
   </si>
   <si>
+    <t>Protein GPR107</t>
+  </si>
+  <si>
     <t>LARP4_MOUSE</t>
   </si>
   <si>
+    <t>La-related protein 4 (La ribonucleoprotein domain family member 4)</t>
+  </si>
+  <si>
     <t>FSD1L_MOUSE</t>
   </si>
   <si>
+    <t>FSD1-like protein (Coiled-coil domain-containing protein 10) (FSD1 N-terminal-like protein)</t>
+  </si>
+  <si>
     <t>FSD2_MOUSE</t>
   </si>
   <si>
+    <t>Fibronectin type III and SPRY domain-containing protein 2 (Minispryn) (SPRY domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>ZN322_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 322 (Zinc finger protein 322A)</t>
+  </si>
+  <si>
     <t>TM266_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 266</t>
+  </si>
+  <si>
     <t>SH3R2_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase SH3RF2 (EC 2.3.2.27) (Protein phosphatase 1 regulatory subunit 39) (RING finger protein 158) (RING-type E3 ubiquitin transferase SH3RF2) (SH3 domain-containing RING finger protein 2)</t>
+  </si>
+  <si>
     <t>FRMD6_MOUSE</t>
   </si>
   <si>
+    <t>FERM domain-containing protein 6</t>
+  </si>
+  <si>
     <t>CAMP2_MOUSE</t>
   </si>
   <si>
+    <t>Calmodulin-regulated spectrin-associated protein 2 (Calmodulin-regulated spectrin-associated protein 1-like protein 1)</t>
+  </si>
+  <si>
     <t>MTA70_MOUSE</t>
   </si>
   <si>
+    <t>N6-adenosine-methyltransferase subunit METTL3 (EC 2.1.1.348) (Methyltransferase-like protein 3) (N6-adenosine-methyltransferase 70 kDa subunit) (MT-A70)</t>
+  </si>
+  <si>
     <t>KC1G3_MOUSE</t>
   </si>
   <si>
+    <t>Casein kinase I isoform gamma-3 (CKI-gamma 3) (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>PNCB_MOUSE</t>
   </si>
   <si>
+    <t>Nicotinate phosphoribosyltransferase (NAPRTase) (EC 6.3.4.21) (Nicotinate phosphoribosyltransferase domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>FBX43_MOUSE</t>
   </si>
   <si>
+    <t>F-box only protein 43 (Endogenous meiotic inhibitor 2)</t>
+  </si>
+  <si>
     <t>PPWD1_MOUSE</t>
   </si>
   <si>
+    <t>Peptidylprolyl isomerase domain and WD repeat-containing protein 1 (EC 5.2.1.8)</t>
+  </si>
+  <si>
     <t>GPC3_MOUSE</t>
   </si>
   <si>
+    <t>Glypican-3 [Cleaved into: Glypican-3 alpha subunit; Glypican-3 beta subunit]</t>
+  </si>
+  <si>
     <t>LS14B_MOUSE</t>
   </si>
   <si>
+    <t>Protein LSM14 homolog B (Protein FAM61B) (RNA-associated protein 55B) (mRAP55B)</t>
+  </si>
+  <si>
     <t>TTC23_MOUSE</t>
   </si>
   <si>
+    <t>Tetratricopeptide repeat protein 23 (TPR repeat protein 23)</t>
+  </si>
+  <si>
     <t>STML1_MOUSE</t>
   </si>
   <si>
+    <t>Stomatin-like protein 1 (SLP-1)</t>
+  </si>
+  <si>
     <t>INT4_MOUSE</t>
   </si>
   <si>
+    <t>Integrator complex subunit 4 (Int4)</t>
+  </si>
+  <si>
     <t>MBRL_MOUSE</t>
   </si>
   <si>
+    <t>Membralin (Transmembrane protein 259)</t>
+  </si>
+  <si>
     <t>HMGC2_MOUSE</t>
   </si>
   <si>
+    <t>3-hydroxy-3-methylglutaryl-CoA lyase, cytoplasmic (EC 4.1.3.4) (3-hydroxy-3-methylglutaryl-CoA lyase-like protein 1)</t>
+  </si>
+  <si>
     <t>STX5_MOUSE</t>
   </si>
   <si>
+    <t>Syntaxin-5</t>
+  </si>
+  <si>
     <t>NEK9_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase Nek9 (EC 2.7.11.1) (Nercc1 kinase) (Never in mitosis A-related kinase 9) (NimA-related protein kinase 9)</t>
+  </si>
+  <si>
     <t>TF3C1_MOUSE</t>
   </si>
   <si>
+    <t>General transcription factor 3C polypeptide 1 (TF3C-alpha) (TFIIIC box B-binding subunit) (Transcription factor IIIC 220 kDa subunit) (TFIIIC 220 kDa subunit) (TFIIIC220) (Transcription factor IIIC subunit alpha)</t>
+  </si>
+  <si>
     <t>OS9_MOUSE</t>
   </si>
   <si>
+    <t>Protein OS-9</t>
+  </si>
+  <si>
     <t>IPO11_MOUSE</t>
   </si>
   <si>
+    <t>Importin-11 (Imp11) (Ran-binding protein 11) (RanBP11)</t>
+  </si>
+  <si>
     <t>OBI1_MOUSE</t>
   </si>
   <si>
+    <t>ORC ubiquitin ligase 1 (OBI1) (EC 2.3.2.27) (RING finger protein 219)</t>
+  </si>
+  <si>
     <t>AMOL2_MOUSE</t>
   </si>
   <si>
+    <t>Angiomotin-like protein 2</t>
+  </si>
+  <si>
     <t>MTA1_MOUSE</t>
   </si>
   <si>
+    <t>Metastasis-associated protein MTA1</t>
+  </si>
+  <si>
     <t>DDX54_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent RNA helicase DDX54 (EC 3.6.4.13) (DEAD box protein 54)</t>
+  </si>
+  <si>
     <t>POF1B_MOUSE</t>
   </si>
   <si>
+    <t>Protein POF1B</t>
+  </si>
+  <si>
     <t>WDR33_MOUSE</t>
   </si>
   <si>
+    <t>pre-mRNA 3' end processing protein WDR33 (WD repeat-containing protein 33) (WD repeat-containing protein of 146 kDa)</t>
+  </si>
+  <si>
     <t>ENOX2_MOUSE</t>
   </si>
   <si>
+    <t>Ecto-NOX disulfide-thiol exchanger 2 (APK1 antigen) (Cytosolic ovarian carcinoma antigen 1) (Tumor-associated hydroquinone oxidase) (tNOX) [Includes: Hydroquinone [NADH] oxidase (EC 1.-.-.-); Protein disulfide-thiol oxidoreductase (EC 1.-.-.-)]</t>
+  </si>
+  <si>
     <t>HMCES_MOUSE</t>
   </si>
   <si>
+    <t>Abasic site processing protein HMCES (Embryonic stem cell-specific 5-hydroxymethylcytosine-binding protein) (ES cell-specific 5hmC-binding protein) (Peptidase HMCES) (EC 3.4.-.-) (SRAP domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>ZN830_MOUSE</t>
   </si>
   <si>
+    <t>Zinc finger protein 830 (Coiled-coil domain-containing protein 16) (Ovus mutant candidate gene 1 protein)</t>
+  </si>
+  <si>
     <t>MTSS1_MOUSE</t>
   </si>
   <si>
+    <t>Protein MTSS 1 (Metastasis suppressor protein 1) (Missing in metastasis protein)</t>
+  </si>
+  <si>
     <t>GYS2_MOUSE</t>
   </si>
   <si>
+    <t>Glycogen [starch] synthase, liver (EC 2.4.1.11)</t>
+  </si>
+  <si>
     <t>RPE_MOUSE</t>
   </si>
   <si>
+    <t>Ribulose-phosphate 3-epimerase (EC 5.1.3.1) (Ribulose-5-phosphate-epimerase)</t>
+  </si>
+  <si>
     <t>OLF24_MOUSE</t>
   </si>
   <si>
+    <t>Olfactory receptor 24 (Olfactory receptor 132-1) (Olfactory receptor TPCR51)</t>
+  </si>
+  <si>
     <t>SELM_MOUSE</t>
   </si>
   <si>
+    <t>Selenoprotein M (SelM)</t>
+  </si>
+  <si>
     <t>DYH5_MOUSE</t>
   </si>
   <si>
+    <t>Dynein heavy chain 5, axonemal (Axonemal beta dynein heavy chain 5) (mDNAH5) (Ciliary dynein heavy chain 5)</t>
+  </si>
+  <si>
     <t>RBM42_MOUSE</t>
   </si>
   <si>
+    <t>RNA-binding protein 42 (RNA-binding motif protein 42)</t>
+  </si>
+  <si>
     <t>TE2IP_MOUSE</t>
   </si>
   <si>
+    <t>Telomeric repeat-binding factor 2-interacting protein 1 (TERF2-interacting telomeric protein 1) (TRF2-interacting telomeric protein 1) (Repressor/activator protein 1 homolog) (RAP1 homolog)</t>
+  </si>
+  <si>
     <t>NCOA5_MOUSE</t>
   </si>
   <si>
+    <t>Nuclear receptor coactivator 5 (NCoA-5) (Coactivator independent of AF-2) (CIA)</t>
+  </si>
+  <si>
     <t>ACHA2_MOUSE</t>
   </si>
   <si>
+    <t>Neuronal acetylcholine receptor subunit alpha-2</t>
+  </si>
+  <si>
     <t>SC16B_MOUSE</t>
   </si>
   <si>
+    <t>Protein transport protein Sec16B (Leucine zipper transcription regulator 2) (Regucalcin gene promoter region-related protein p117) (RGPR-p117) (SEC16 homolog B)</t>
+  </si>
+  <si>
     <t>WRIP1_MOUSE</t>
   </si>
   <si>
+    <t>ATPase WRNIP1 (EC 3.6.1.3) (Werner helicase-interacting protein 1)</t>
+  </si>
+  <si>
     <t>BAZ2A_MOUSE</t>
   </si>
   <si>
+    <t>Bromodomain adjacent to zinc finger domain protein 2A (Transcription termination factor I-interacting protein 5) (TTF-I-interacting protein 5) (Tip5)</t>
+  </si>
+  <si>
     <t>B3GT6_MOUSE</t>
   </si>
   <si>
+    <t>Beta-1,3-galactosyltransferase 6 (Beta-1,3-GalTase 6) (Beta3Gal-T6) (Beta3GalT6) (EC 2.4.1.134) (GAG GalTII) (Galactosyltransferase II) (Galactosylxylosylprotein 3-beta-galactosyltransferase) (UDP-Gal:betaGal beta 1,3-galactosyltransferase polypeptide 6)</t>
+  </si>
+  <si>
     <t>BCL7B_MOUSE</t>
   </si>
   <si>
+    <t>B-cell CLL/lymphoma 7 protein family member B</t>
+  </si>
+  <si>
     <t>GLYR1_MOUSE</t>
   </si>
   <si>
+    <t>Putative oxidoreductase GLYR1 (EC 1.-.-.-) (Glyoxylate reductase 1 homolog) (Nuclear protein NP60)</t>
+  </si>
+  <si>
     <t>PRKX_MOUSE</t>
   </si>
   <si>
+    <t>cAMP-dependent protein kinase catalytic subunit PRKX (PrKX) (Protein kinase X) (Protein kinase X-linked) (Serine/threonine-protein kinase PRKX) (EC 2.7.11.1) (PKA-related protein kinase)</t>
+  </si>
+  <si>
     <t>CSMD1_MOUSE</t>
   </si>
   <si>
+    <t>CUB and sushi domain-containing protein 1 (CUB and sushi multiple domains protein 1)</t>
+  </si>
+  <si>
     <t>S12A6_MOUSE</t>
   </si>
   <si>
+    <t>Solute carrier family 12 member 6 (Electroneutral potassium-chloride cotransporter 3) (K-Cl cotransporter 3)</t>
+  </si>
+  <si>
     <t>CPT1B_MOUSE</t>
   </si>
   <si>
+    <t>Carnitine O-palmitoyltransferase 1, muscle isoform (CPT1-M) (EC 2.3.1.21) (Carnitine O-palmitoyltransferase I, muscle isoform) (CPT I) (CPTI-M) (Carnitine palmitoyltransferase 1B)</t>
+  </si>
+  <si>
     <t>CSTN3_MOUSE</t>
   </si>
   <si>
+    <t>Calsyntenin-3 (Alcadein-beta) (Alc-beta)</t>
+  </si>
+  <si>
     <t>RNF34_MOUSE</t>
   </si>
   <si>
+    <t>E3 ubiquitin-protein ligase RNF34 (EC 2.3.2.27) (Phafin-1) (RING finger protein 34) (RING-type E3 ubiquitin transferase RNF34)</t>
+  </si>
+  <si>
     <t>ABCF2_MOUSE</t>
   </si>
   <si>
+    <t>ATP-binding cassette sub-family F member 2</t>
+  </si>
+  <si>
     <t>DOHH_MOUSE</t>
   </si>
   <si>
+    <t>Deoxyhypusine hydroxylase (DOHH) (EC 1.14.99.29) (Deoxyhypusine dioxygenase) (Deoxyhypusine monooxygenase)</t>
+  </si>
+  <si>
     <t>DDX50_MOUSE</t>
   </si>
   <si>
+    <t>ATP-dependent RNA helicase DDX50 (EC 3.6.4.13) (DEAD box protein 50) (Gu-beta) (Nucleolar protein Gu2)</t>
+  </si>
+  <si>
     <t>NUF2_MOUSE</t>
   </si>
   <si>
+    <t>Kinetochore protein Nuf2 (Cell division cycle-associated protein 1)</t>
+  </si>
+  <si>
     <t>CAD23_MOUSE</t>
   </si>
   <si>
+    <t>Cadherin-23 (Otocadherin)</t>
+  </si>
+  <si>
     <t>MYL9_MOUSE</t>
   </si>
   <si>
+    <t>Myosin regulatory light polypeptide 9 (Myosin regulatory light chain 2, smooth muscle isoform) (Myosin regulatory light chain 9)</t>
+  </si>
+  <si>
     <t>RFA3_MOUSE</t>
   </si>
   <si>
+    <t>Replication protein A 14 kDa subunit (RP-A p14) (Replication factor A protein 3) (RF-A protein 3)</t>
+  </si>
+  <si>
     <t>RTRAF_MOUSE</t>
   </si>
   <si>
+    <t>RNA transcription, translation and transport factor protein</t>
+  </si>
+  <si>
     <t>TPPC2_MOUSE</t>
   </si>
   <si>
+    <t>Trafficking protein particle complex subunit 2 (Sedlin)</t>
+  </si>
+  <si>
     <t>RPR1B_MOUSE</t>
   </si>
   <si>
+    <t>Regulation of nuclear pre-mRNA domain-containing protein 1B (Cell cycle-related and expression-elevated protein in tumor)</t>
+  </si>
+  <si>
     <t>RNH2A_MOUSE</t>
   </si>
   <si>
+    <t>Ribonuclease H2 subunit A (RNase H2 subunit A) (EC 3.1.26.4) (Ribonuclease HI large subunit) (RNase HI large subunit) (Ribonuclease HI subunit A)</t>
+  </si>
+  <si>
     <t>YIF1B_MOUSE</t>
   </si>
   <si>
+    <t>Protein YIF1B (YIP1-interacting factor homolog B)</t>
+  </si>
+  <si>
     <t>CP2U1_MOUSE</t>
   </si>
   <si>
+    <t>Cytochrome P450 2U1 (Long-chain fatty acid omega-monooxygenase) (EC 1.14.14.80)</t>
+  </si>
+  <si>
     <t>MOXD1_MOUSE</t>
   </si>
   <si>
+    <t>DBH-like monooxygenase protein 1 (EC 1.14.17.-) (DBH-related protein) (Monooxygenase X)</t>
+  </si>
+  <si>
     <t>SSRA_MOUSE</t>
   </si>
   <si>
+    <t>Translocon-associated protein subunit alpha (TRAP-alpha) (Signal sequence receptor subunit alpha) (SSR-alpha)</t>
+  </si>
+  <si>
     <t>TM135_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 135 (Peroxisomal membrane protein 52) (PMP52)</t>
+  </si>
+  <si>
     <t>TM40L_MOUSE</t>
   </si>
   <si>
+    <t>Mitochondrial import receptor subunit TOM40B (Protein TOMM40-like)</t>
+  </si>
+  <si>
     <t>RIBC1_MOUSE</t>
   </si>
   <si>
+    <t>RIB43A-like with coiled-coils protein 1</t>
+  </si>
+  <si>
     <t>PRR15_MOUSE</t>
   </si>
   <si>
+    <t>Proline-rich protein 15</t>
+  </si>
+  <si>
     <t>FNDC8_MOUSE</t>
   </si>
   <si>
+    <t>Fibronectin type III domain-containing protein 8</t>
+  </si>
+  <si>
     <t>SPT17_MOUSE</t>
   </si>
   <si>
+    <t>Spermatogenesis-associated protein 17 (Spermatogenesis-related protein 11)</t>
+  </si>
+  <si>
     <t>SPB7_MOUSE</t>
   </si>
   <si>
+    <t>Serpin B7 (Megsin)</t>
+  </si>
+  <si>
     <t>NC2A_MOUSE</t>
   </si>
   <si>
+    <t>Dr1-associated corepressor (Dr1-associated protein 1) (Negative cofactor 2-alpha) (NC2-alpha)</t>
+  </si>
+  <si>
     <t>TMM54_MOUSE</t>
   </si>
   <si>
+    <t>Transmembrane protein 54</t>
+  </si>
+  <si>
     <t>PPR35_MOUSE</t>
   </si>
   <si>
+    <t>Protein phosphatase 1 regulatory subunit 35</t>
+  </si>
+  <si>
     <t>C1QT2_MOUSE</t>
   </si>
   <si>
+    <t>Complement C1q tumor necrosis factor-related protein 2 (mCTRP2)</t>
+  </si>
+  <si>
     <t>SC11C_MOUSE</t>
   </si>
   <si>
+    <t>Signal peptidase complex catalytic subunit SEC11C (EC 3.4.21.89) (Microsomal signal peptidase 21 kDa subunit) (SPase 21 kDa subunit) (SEC11 homolog C) (SEC11-like protein 3) (SPC21)</t>
+  </si>
+  <si>
     <t>EVPL_MOUSE</t>
   </si>
   <si>
+    <t>Envoplakin (210 kDa cornified envelope precursor protein) (p210)</t>
+  </si>
+  <si>
     <t>JOS1_MOUSE</t>
   </si>
   <si>
+    <t>Josephin-1 (EC 3.4.19.12) (Josephin domain-containing protein 1)</t>
+  </si>
+  <si>
     <t>P33MX_MOUSE</t>
   </si>
   <si>
+    <t>Putative monooxygenase p33MONOX (EC 1.-.-.-)</t>
+  </si>
+  <si>
     <t>HM20A_MOUSE</t>
   </si>
   <si>
+    <t>High mobility group protein 20A (HMG box-containing protein 20A) (HMG domain-containing protein HMGX1) (Inhibitor of BRAF35) (iBRAF)</t>
+  </si>
+  <si>
     <t>OCTC_MOUSE</t>
   </si>
   <si>
+    <t>Peroxisomal carnitine O-octanoyltransferase (COT) (EC 2.3.1.137)</t>
+  </si>
+  <si>
     <t>TJAP1_MOUSE</t>
   </si>
   <si>
+    <t>Tight junction-associated protein 1 (Protein incorporated later into tight junctions) (Tight junction protein 4)</t>
+  </si>
+  <si>
     <t>PLLP_MOUSE</t>
   </si>
   <si>
+    <t>Plasmolipin (Plasma membrane proteolipid)</t>
+  </si>
+  <si>
     <t>RMD1_MOUSE</t>
   </si>
   <si>
+    <t>Regulator of microtubule dynamics protein 1 (RMD-1) (mRMD-1) (Microtubule-associated protein) (Protein FAM82B)</t>
+  </si>
+  <si>
     <t>CPSF1_MOUSE</t>
   </si>
   <si>
+    <t>Cleavage and polyadenylation specificity factor subunit 1 (Cleavage and polyadenylation specificity factor 160 kDa subunit) (CPSF 160 kDa subunit)</t>
+  </si>
+  <si>
     <t>T22D4_MOUSE</t>
   </si>
   <si>
+    <t>TSC22 domain family protein 4 (TSC22-related-inducible leucine zipper protein 2) (Thg-1pit)</t>
+  </si>
+  <si>
     <t>PGAP6_MOUSE</t>
   </si>
   <si>
+    <t>Post-GPI attachment to proteins factor 6 (EC 3.1.1.4) (GPI processing phospholipase A2) (GPI-PLA2) (M83 protein) (Transmembrane protein 8) (Transmembrane protein 8A)</t>
+  </si>
+  <si>
     <t>STK4_MOUSE</t>
   </si>
   <si>
+    <t>Serine/threonine-protein kinase 4 (EC 2.7.11.1) (Mammalian STE20-like protein kinase 1) (MST-1) (STE20-like kinase MST1) [Cleaved into: Serine/threonine-protein kinase 4 37kDa subunit (MST1/N); Serine/threonine-protein kinase 4 18kDa subunit (MST1/C)]</t>
+  </si>
+  <si>
     <t>ISG20_MOUSE</t>
   </si>
   <si>
+    <t>Interferon-stimulated gene 20 kDa protein (EC 3.1.13.1) (Promyelocytic leukemia nuclear body-associated protein ISG20) (Protein DnaQL)</t>
+  </si>
+  <si>
     <t>FANCA_MOUSE</t>
   </si>
   <si>
+    <t>Fanconi anemia group A protein homolog (Protein FACA)</t>
+  </si>
+  <si>
     <t>BAT1_MOUSE</t>
   </si>
   <si>
+    <t>b(0,+)-type amino acid transporter 1 (b(0,+)AT1) (Glycoprotein-associated amino acid transporter b0,+AT1) (Solute carrier family 7 member 9)</t>
+  </si>
+  <si>
     <t>C1QT1_MOUSE</t>
   </si>
   <si>
+    <t>Complement C1q tumor necrosis factor-related protein 1 (Putative secreted protein ZSIG37)</t>
+  </si>
+  <si>
     <t>ZO3_MOUSE</t>
   </si>
   <si>
+    <t>Tight junction protein ZO-3 (Tight junction protein 3) (Zona occludens protein 3) (Zonula occludens protein 3)</t>
+  </si>
+  <si>
     <t>SMK2B_MOUSE</t>
   </si>
   <si>
+    <t>Sperm motility kinase 2B (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>ANGL2_MOUSE</t>
   </si>
   <si>
+    <t>Angiopoietin-related protein 2 (Angiopoietin-like protein 2)</t>
+  </si>
+  <si>
     <t>LAMC3_MOUSE</t>
   </si>
   <si>
+    <t>Laminin subunit gamma-3 (Laminin-12 subunit gamma) (Laminin-14 subunit gamma) (Laminin-15 subunit gamma)</t>
+  </si>
+  <si>
     <t>PLOD2_MOUSE</t>
   </si>
   <si>
+    <t>Procollagen-lysine,2-oxoglutarate 5-dioxygenase 2 (EC 1.14.11.4) (Lysyl hydroxylase 2) (LH2)</t>
+  </si>
+  <si>
     <t>PODXL_MOUSE</t>
   </si>
   <si>
+    <t>Podocalyxin (Podocalyxin-like protein 1) (PC) (PCLP-1)</t>
+  </si>
+  <si>
     <t>SYT10_MOUSE</t>
   </si>
   <si>
+    <t>Synaptotagmin-10 (Synaptotagmin X) (SytX)</t>
+  </si>
+  <si>
     <t>PR40A_MOUSE</t>
   </si>
   <si>
+    <t>Pre-mRNA-processing factor 40 homolog A (Formin-binding protein 11) (FBP-11) (Formin-binding protein 3)</t>
+  </si>
+  <si>
     <t>MRP5_MOUSE</t>
   </si>
   <si>
+    <t>Multidrug resistance-associated protein 5 (ATP-binding cassette sub-family C member 5) (Multi-specific organic anion transporter C) (MOAT-C) (SMRP)</t>
+  </si>
+  <si>
     <t>NBN_MOUSE</t>
   </si>
   <si>
+    <t>Nibrin (Cell cycle regulatory protein p95) (Nijmegen breakage syndrome protein 1 homolog)</t>
+  </si>
+  <si>
     <t>C8AP2_MOUSE</t>
   </si>
   <si>
+    <t>CASP8-associated protein 2 (FLICE-associated huge protein)</t>
+  </si>
+  <si>
     <t>ARC_MOUSE</t>
   </si>
   <si>
+    <t>Activity-regulated cytoskeleton-associated protein (mArc) (Activity-regulated gene 3.1 protein) (ARC/ARG3.1) (Arg3.1)</t>
+  </si>
+  <si>
     <t>ATRAP_MOUSE</t>
   </si>
   <si>
+    <t>Type-1 angiotensin II receptor-associated protein (AT1 receptor-associated protein)</t>
+  </si>
+  <si>
     <t>SRPK3_MOUSE</t>
   </si>
   <si>
+    <t>SRSF protein kinase 3 (EC 2.7.11.1) (Muscle-specific serine kinase 1) (MSSK-1) (Serine/arginine-rich protein-specific kinase 3) (SR-protein-specific kinase 3) (Serine/threonine-protein kinase 23)</t>
+  </si>
+  <si>
     <t>CDC7_MOUSE</t>
   </si>
   <si>
+    <t>Cell division cycle 7-related protein kinase (CDC7-related kinase) (muCdc7) (EC 2.7.11.1)</t>
+  </si>
+  <si>
     <t>BMP15_MOUSE</t>
   </si>
   <si>
+    <t>Bone morphogenetic protein 15 (BMP-15) (Growth/differentiation factor 9B) (GDF-9B)</t>
+  </si>
+  <si>
     <t>GYS1_MOUSE</t>
   </si>
   <si>
+    <t>Glycogen [starch] synthase, muscle (EC 2.4.1.11)</t>
+  </si>
+  <si>
     <t>CLIC1_MOUSE</t>
   </si>
   <si>
+    <t>Chloride intracellular channel protein 1 (Nuclear chloride ion channel 27) (NCC27)</t>
+  </si>
+  <si>
     <t>MTM1_MOUSE</t>
   </si>
   <si>
+    <t>Myotubularin (Phosphatidylinositol-3,5-bisphosphate 3-phosphatase) (EC 3.1.3.95) (Phosphatidylinositol-3-phosphate phosphatase) (EC 3.1.3.64)</t>
+  </si>
+  <si>
     <t>ZN292_MOUSE</t>
+  </si>
+  <si>
+    <t>Zinc finger protein 292 (Zinc finger protein 15) (Zfp-15)</t>
   </si>
 </sst>
 </file>
@@ -1305,1610 +2265,2570 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A320"/>
+  <dimension ref="A1:B320"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1">
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
       <c r="A3" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
       <c r="A4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>6</v>
+      </c>
+      <c r="B4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
       <c r="A5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6" spans="1:1">
+        <v>8</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
       <c r="A6" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>12</v>
+      </c>
+      <c r="B7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2">
       <c r="A10" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2">
       <c r="A11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2">
       <c r="A12" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2">
       <c r="A13" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="14" spans="1:1">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2">
       <c r="A14" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2">
       <c r="A15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2">
       <c r="A16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="17" spans="1:1">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2">
       <c r="A17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:1">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2">
       <c r="A18" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
+        <v>34</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2">
       <c r="A19" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20" spans="1:1">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2">
       <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2">
       <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2">
       <c r="A23" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
+        <v>44</v>
+      </c>
+      <c r="B23" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2">
       <c r="A24" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
+        <v>46</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2">
       <c r="A25" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+        <v>48</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2">
       <c r="A26" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:1">
+        <v>50</v>
+      </c>
+      <c r="B26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2">
       <c r="A27" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>52</v>
+      </c>
+      <c r="B27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2">
       <c r="A28" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
+        <v>54</v>
+      </c>
+      <c r="B28" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2">
       <c r="A29" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="30" spans="1:1">
+        <v>56</v>
+      </c>
+      <c r="B29" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+        <v>58</v>
+      </c>
+      <c r="B30" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2">
       <c r="A31" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="32" spans="1:1">
+        <v>60</v>
+      </c>
+      <c r="B31" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2">
       <c r="A32" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1">
+        <v>62</v>
+      </c>
+      <c r="B32" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2">
       <c r="A33" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1">
+        <v>64</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2">
       <c r="A34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2">
       <c r="A35" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1">
+        <v>68</v>
+      </c>
+      <c r="B35" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2">
       <c r="A36" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1">
+        <v>70</v>
+      </c>
+      <c r="B36" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2">
       <c r="A37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+        <v>72</v>
+      </c>
+      <c r="B37" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2">
       <c r="A38" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1">
+        <v>74</v>
+      </c>
+      <c r="B38" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2">
       <c r="A39" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1">
+        <v>76</v>
+      </c>
+      <c r="B39" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2">
       <c r="A40" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1">
+        <v>78</v>
+      </c>
+      <c r="B40" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2">
       <c r="A41" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1">
+        <v>80</v>
+      </c>
+      <c r="B41" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2">
       <c r="A42" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1">
+        <v>82</v>
+      </c>
+      <c r="B42" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2">
       <c r="A43" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1">
+        <v>84</v>
+      </c>
+      <c r="B43" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2">
       <c r="A44" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1">
+        <v>86</v>
+      </c>
+      <c r="B44" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2">
       <c r="A45" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1">
+        <v>88</v>
+      </c>
+      <c r="B45" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2">
       <c r="A46" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1">
+        <v>90</v>
+      </c>
+      <c r="B46" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2">
       <c r="A47" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1">
+        <v>92</v>
+      </c>
+      <c r="B47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2">
       <c r="A48" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1">
+        <v>94</v>
+      </c>
+      <c r="B48" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2">
       <c r="A49" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1">
+        <v>96</v>
+      </c>
+      <c r="B49" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2">
       <c r="A50" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1">
+        <v>98</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1">
+        <v>100</v>
+      </c>
+      <c r="B51" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2">
       <c r="A52" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1">
+        <v>102</v>
+      </c>
+      <c r="B52" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1">
+        <v>104</v>
+      </c>
+      <c r="B53" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2">
       <c r="A54" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1">
+        <v>106</v>
+      </c>
+      <c r="B54" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1">
+        <v>108</v>
+      </c>
+      <c r="B55" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2">
       <c r="A56" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1">
+        <v>110</v>
+      </c>
+      <c r="B56" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2">
       <c r="A57" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1">
+        <v>112</v>
+      </c>
+      <c r="B57" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2">
       <c r="A58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1">
+        <v>114</v>
+      </c>
+      <c r="B58" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1">
+        <v>116</v>
+      </c>
+      <c r="B59" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1">
+        <v>118</v>
+      </c>
+      <c r="B60" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2">
       <c r="A61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1">
+        <v>120</v>
+      </c>
+      <c r="B61" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2">
       <c r="A62" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1">
+        <v>122</v>
+      </c>
+      <c r="B62" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2">
       <c r="A63" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1">
+        <v>124</v>
+      </c>
+      <c r="B63" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2">
       <c r="A64" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="65" spans="1:1">
+        <v>126</v>
+      </c>
+      <c r="B64" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2">
       <c r="A65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:1">
+        <v>128</v>
+      </c>
+      <c r="B65" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2">
       <c r="A66" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="67" spans="1:1">
+        <v>130</v>
+      </c>
+      <c r="B66" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2">
       <c r="A67" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="68" spans="1:1">
+        <v>132</v>
+      </c>
+      <c r="B67" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2">
       <c r="A68" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1">
+        <v>134</v>
+      </c>
+      <c r="B68" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2">
       <c r="A69" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2">
       <c r="A70" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="71" spans="1:1">
+        <v>138</v>
+      </c>
+      <c r="B70" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2">
       <c r="A71" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:1">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2">
       <c r="A72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:1">
+        <v>142</v>
+      </c>
+      <c r="B72" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="74" spans="1:1">
+        <v>144</v>
+      </c>
+      <c r="B73" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2">
       <c r="A74" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="75" spans="1:1">
+        <v>146</v>
+      </c>
+      <c r="B74" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="76" spans="1:1">
+        <v>148</v>
+      </c>
+      <c r="B75" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2">
       <c r="A76" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="77" spans="1:1">
+        <v>150</v>
+      </c>
+      <c r="B76" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="78" spans="1:1">
+        <v>152</v>
+      </c>
+      <c r="B77" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2">
       <c r="A78" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="79" spans="1:1">
+        <v>154</v>
+      </c>
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2">
       <c r="A79" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="80" spans="1:1">
+        <v>156</v>
+      </c>
+      <c r="B79" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2">
       <c r="A80" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:1">
+        <v>158</v>
+      </c>
+      <c r="B80" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2">
       <c r="A81" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="82" spans="1:1">
+        <v>160</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2">
       <c r="A82" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="83" spans="1:1">
+        <v>162</v>
+      </c>
+      <c r="B82" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2">
       <c r="A83" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="84" spans="1:1">
+        <v>164</v>
+      </c>
+      <c r="B83" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2">
       <c r="A84" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="85" spans="1:1">
+        <v>166</v>
+      </c>
+      <c r="B84" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2">
       <c r="A85" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="86" spans="1:1">
+        <v>168</v>
+      </c>
+      <c r="B85" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2">
       <c r="A86" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="87" spans="1:1">
+        <v>170</v>
+      </c>
+      <c r="B86" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2">
       <c r="A87" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="88" spans="1:1">
+        <v>172</v>
+      </c>
+      <c r="B87" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="89" spans="1:1">
+        <v>174</v>
+      </c>
+      <c r="B88" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2">
       <c r="A89" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="90" spans="1:1">
+        <v>176</v>
+      </c>
+      <c r="B89" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="91" spans="1:1">
+        <v>178</v>
+      </c>
+      <c r="B90" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2">
       <c r="A91" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="92" spans="1:1">
+        <v>180</v>
+      </c>
+      <c r="B91" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2">
       <c r="A92" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="93" spans="1:1">
+        <v>182</v>
+      </c>
+      <c r="B92" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2">
       <c r="A93" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="94" spans="1:1">
+        <v>184</v>
+      </c>
+      <c r="B93" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2">
       <c r="A94" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="95" spans="1:1">
+        <v>186</v>
+      </c>
+      <c r="B94" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="96" spans="1:1">
+        <v>188</v>
+      </c>
+      <c r="B95" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2">
       <c r="A96" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="97" spans="1:1">
+        <v>190</v>
+      </c>
+      <c r="B96" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="98" spans="1:1">
+        <v>192</v>
+      </c>
+      <c r="B97" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2">
       <c r="A98" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1">
+        <v>194</v>
+      </c>
+      <c r="B98" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2">
       <c r="A99" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1">
+        <v>196</v>
+      </c>
+      <c r="B99" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2">
       <c r="A100" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="101" spans="1:1">
+        <v>198</v>
+      </c>
+      <c r="B100" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2">
       <c r="A101" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="102" spans="1:1">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2">
       <c r="A102" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2">
       <c r="A103" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1">
+        <v>204</v>
+      </c>
+      <c r="B103" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2">
       <c r="A104" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="105" spans="1:1">
+        <v>206</v>
+      </c>
+      <c r="B104" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2">
       <c r="A105" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="106" spans="1:1">
+        <v>208</v>
+      </c>
+      <c r="B105" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2">
       <c r="A106" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="107" spans="1:1">
+        <v>210</v>
+      </c>
+      <c r="B106" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="108" spans="1:1">
+        <v>212</v>
+      </c>
+      <c r="B107" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="109" spans="1:1">
+        <v>214</v>
+      </c>
+      <c r="B108" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2">
       <c r="A109" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="110" spans="1:1">
+        <v>216</v>
+      </c>
+      <c r="B109" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2">
       <c r="A110" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="111" spans="1:1">
+        <v>218</v>
+      </c>
+      <c r="B110" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2">
       <c r="A111" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="112" spans="1:1">
+        <v>220</v>
+      </c>
+      <c r="B111" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2">
       <c r="A112" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="113" spans="1:1">
+        <v>222</v>
+      </c>
+      <c r="B112" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="114" spans="1:1">
+        <v>224</v>
+      </c>
+      <c r="B113" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1">
+        <v>226</v>
+      </c>
+      <c r="B114" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2">
       <c r="A115" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1">
+        <v>228</v>
+      </c>
+      <c r="B115" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2">
       <c r="A116" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="117" spans="1:1">
+        <v>230</v>
+      </c>
+      <c r="B116" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2">
       <c r="A117" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="118" spans="1:1">
+        <v>232</v>
+      </c>
+      <c r="B117" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2">
       <c r="A118" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="119" spans="1:1">
+        <v>234</v>
+      </c>
+      <c r="B118" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2">
       <c r="A119" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="120" spans="1:1">
+        <v>236</v>
+      </c>
+      <c r="B119" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2">
       <c r="A120" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="121" spans="1:1">
+        <v>238</v>
+      </c>
+      <c r="B120" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2">
       <c r="A121" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="122" spans="1:1">
+        <v>240</v>
+      </c>
+      <c r="B121" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2">
       <c r="A122" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="123" spans="1:1">
+        <v>242</v>
+      </c>
+      <c r="B122" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2">
       <c r="A123" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="124" spans="1:1">
+        <v>244</v>
+      </c>
+      <c r="B123" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2">
       <c r="A124" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="125" spans="1:1">
+        <v>246</v>
+      </c>
+      <c r="B124" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2">
       <c r="A125" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="126" spans="1:1">
+        <v>248</v>
+      </c>
+      <c r="B125" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2">
       <c r="A126" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="127" spans="1:1">
+        <v>250</v>
+      </c>
+      <c r="B126" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="128" spans="1:1">
+        <v>252</v>
+      </c>
+      <c r="B127" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2">
       <c r="A128" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="129" spans="1:1">
+        <v>254</v>
+      </c>
+      <c r="B128" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2">
       <c r="A129" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="130" spans="1:1">
+        <v>256</v>
+      </c>
+      <c r="B129" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="131" spans="1:1">
+        <v>258</v>
+      </c>
+      <c r="B130" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="132" spans="1:1">
+        <v>260</v>
+      </c>
+      <c r="B131" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2">
       <c r="A132" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="133" spans="1:1">
+        <v>262</v>
+      </c>
+      <c r="B132" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2">
       <c r="A133" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="134" spans="1:1">
+        <v>264</v>
+      </c>
+      <c r="B133" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2">
       <c r="A134" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="135" spans="1:1">
+        <v>266</v>
+      </c>
+      <c r="B134" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2">
       <c r="A135" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="136" spans="1:1">
+        <v>268</v>
+      </c>
+      <c r="B135" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2">
       <c r="A136" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="137" spans="1:1">
+        <v>270</v>
+      </c>
+      <c r="B136" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2">
       <c r="A137" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="138" spans="1:1">
+        <v>272</v>
+      </c>
+      <c r="B137" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2">
       <c r="A138" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="139" spans="1:1">
+        <v>274</v>
+      </c>
+      <c r="B138" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="140" spans="1:1">
+        <v>276</v>
+      </c>
+      <c r="B139" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2">
       <c r="A140" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="141" spans="1:1">
+        <v>278</v>
+      </c>
+      <c r="B140" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="142" spans="1:1">
+        <v>280</v>
+      </c>
+      <c r="B141" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2">
       <c r="A142" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="143" spans="1:1">
+        <v>282</v>
+      </c>
+      <c r="B142" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2">
       <c r="A143" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="144" spans="1:1">
+        <v>284</v>
+      </c>
+      <c r="B143" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2">
       <c r="A144" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="145" spans="1:1">
+        <v>286</v>
+      </c>
+      <c r="B144" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2">
       <c r="A145" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="146" spans="1:1">
+        <v>288</v>
+      </c>
+      <c r="B145" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2">
       <c r="A146" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="147" spans="1:1">
+        <v>290</v>
+      </c>
+      <c r="B146" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2">
       <c r="A147" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="148" spans="1:1">
+        <v>292</v>
+      </c>
+      <c r="B147" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="149" spans="1:1">
+        <v>294</v>
+      </c>
+      <c r="B148" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2">
       <c r="A149" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="150" spans="1:1">
+        <v>296</v>
+      </c>
+      <c r="B149" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="151" spans="1:1">
+        <v>298</v>
+      </c>
+      <c r="B150" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2">
       <c r="A151" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="152" spans="1:1">
+        <v>300</v>
+      </c>
+      <c r="B151" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2">
       <c r="A152" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="153" spans="1:1">
+        <v>302</v>
+      </c>
+      <c r="B152" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2">
       <c r="A153" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="154" spans="1:1">
+        <v>304</v>
+      </c>
+      <c r="B153" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2">
       <c r="A154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:1">
+        <v>306</v>
+      </c>
+      <c r="B154" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2">
       <c r="A155" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="156" spans="1:1">
+        <v>308</v>
+      </c>
+      <c r="B155" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="157" spans="1:1">
+        <v>310</v>
+      </c>
+      <c r="B156" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2">
       <c r="A157" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="158" spans="1:1">
+        <v>312</v>
+      </c>
+      <c r="B157" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="159" spans="1:1">
+        <v>314</v>
+      </c>
+      <c r="B158" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2">
       <c r="A159" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="160" spans="1:1">
+        <v>316</v>
+      </c>
+      <c r="B159" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2">
       <c r="A160" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="161" spans="1:1">
+        <v>318</v>
+      </c>
+      <c r="B160" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2">
       <c r="A161" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="162" spans="1:1">
+        <v>320</v>
+      </c>
+      <c r="B161" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2">
       <c r="A162" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="163" spans="1:1">
+        <v>322</v>
+      </c>
+      <c r="B162" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2">
       <c r="A163" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="164" spans="1:1">
+        <v>324</v>
+      </c>
+      <c r="B163" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2">
       <c r="A164" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="165" spans="1:1">
+        <v>326</v>
+      </c>
+      <c r="B164" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2">
       <c r="A165" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="166" spans="1:1">
+        <v>328</v>
+      </c>
+      <c r="B165" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2">
       <c r="A166" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="167" spans="1:1">
+        <v>330</v>
+      </c>
+      <c r="B166" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2">
       <c r="A167" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="168" spans="1:1">
+        <v>332</v>
+      </c>
+      <c r="B167" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2">
       <c r="A168" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="169" spans="1:1">
+        <v>334</v>
+      </c>
+      <c r="B168" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2">
       <c r="A169" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="170" spans="1:1">
+        <v>336</v>
+      </c>
+      <c r="B169" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2">
       <c r="A170" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="171" spans="1:1">
+        <v>338</v>
+      </c>
+      <c r="B170" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2">
       <c r="A171" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="172" spans="1:1">
+        <v>340</v>
+      </c>
+      <c r="B171" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2">
       <c r="A172" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="173" spans="1:1">
+        <v>342</v>
+      </c>
+      <c r="B172" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2">
       <c r="A173" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="174" spans="1:1">
+        <v>344</v>
+      </c>
+      <c r="B173" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2">
       <c r="A174" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="175" spans="1:1">
+        <v>346</v>
+      </c>
+      <c r="B174" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2">
       <c r="A175" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="176" spans="1:1">
+        <v>348</v>
+      </c>
+      <c r="B175" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2">
       <c r="A176" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="177" spans="1:1">
+        <v>350</v>
+      </c>
+      <c r="B176" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2">
       <c r="A177" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="178" spans="1:1">
+        <v>352</v>
+      </c>
+      <c r="B177" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2">
       <c r="A178" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="179" spans="1:1">
+        <v>354</v>
+      </c>
+      <c r="B178" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2">
       <c r="A179" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="180" spans="1:1">
+        <v>356</v>
+      </c>
+      <c r="B179" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2">
       <c r="A180" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="181" spans="1:1">
+        <v>358</v>
+      </c>
+      <c r="B180" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2">
       <c r="A181" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="182" spans="1:1">
+        <v>360</v>
+      </c>
+      <c r="B181" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2">
       <c r="A182" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="183" spans="1:1">
+        <v>362</v>
+      </c>
+      <c r="B182" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2">
       <c r="A183" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="184" spans="1:1">
+        <v>364</v>
+      </c>
+      <c r="B183" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2">
       <c r="A184" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="185" spans="1:1">
+        <v>366</v>
+      </c>
+      <c r="B184" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2">
       <c r="A185" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="186" spans="1:1">
+        <v>368</v>
+      </c>
+      <c r="B185" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2">
       <c r="A186" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="187" spans="1:1">
+        <v>370</v>
+      </c>
+      <c r="B186" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2">
       <c r="A187" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="188" spans="1:1">
+        <v>372</v>
+      </c>
+      <c r="B187" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2">
       <c r="A188" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="189" spans="1:1">
+        <v>374</v>
+      </c>
+      <c r="B188" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2">
       <c r="A189" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="190" spans="1:1">
+        <v>376</v>
+      </c>
+      <c r="B189" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2">
       <c r="A190" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="191" spans="1:1">
+        <v>378</v>
+      </c>
+      <c r="B190" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2">
       <c r="A191" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="192" spans="1:1">
+        <v>380</v>
+      </c>
+      <c r="B191" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2">
       <c r="A192" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="193" spans="1:1">
+        <v>382</v>
+      </c>
+      <c r="B192" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2">
       <c r="A193" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="194" spans="1:1">
+        <v>384</v>
+      </c>
+      <c r="B193" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2">
       <c r="A194" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="195" spans="1:1">
+        <v>386</v>
+      </c>
+      <c r="B194" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2">
       <c r="A195" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="196" spans="1:1">
+        <v>388</v>
+      </c>
+      <c r="B195" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2">
       <c r="A196" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="197" spans="1:1">
+        <v>390</v>
+      </c>
+      <c r="B196" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2">
       <c r="A197" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="198" spans="1:1">
+        <v>392</v>
+      </c>
+      <c r="B197" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2">
       <c r="A198" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="199" spans="1:1">
+        <v>394</v>
+      </c>
+      <c r="B198" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2">
       <c r="A199" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="200" spans="1:1">
+        <v>396</v>
+      </c>
+      <c r="B199" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2">
       <c r="A200" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="201" spans="1:1">
+        <v>398</v>
+      </c>
+      <c r="B200" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2">
       <c r="A201" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="202" spans="1:1">
+        <v>400</v>
+      </c>
+      <c r="B201" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2">
       <c r="A202" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="203" spans="1:1">
+        <v>402</v>
+      </c>
+      <c r="B202" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2">
       <c r="A203" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="204" spans="1:1">
+        <v>404</v>
+      </c>
+      <c r="B203" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2">
       <c r="A204" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="205" spans="1:1">
+        <v>406</v>
+      </c>
+      <c r="B204" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2">
       <c r="A205" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:1">
+        <v>408</v>
+      </c>
+      <c r="B205" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2">
       <c r="A206" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="207" spans="1:1">
+        <v>410</v>
+      </c>
+      <c r="B206" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2">
       <c r="A207" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="208" spans="1:1">
+        <v>412</v>
+      </c>
+      <c r="B207" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2">
       <c r="A208" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="209" spans="1:1">
+        <v>414</v>
+      </c>
+      <c r="B208" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2">
       <c r="A209" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="210" spans="1:1">
+        <v>416</v>
+      </c>
+      <c r="B209" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2">
       <c r="A210" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="211" spans="1:1">
+        <v>418</v>
+      </c>
+      <c r="B210" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2">
       <c r="A211" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="212" spans="1:1">
+        <v>420</v>
+      </c>
+      <c r="B211" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2">
       <c r="A212" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="213" spans="1:1">
+        <v>422</v>
+      </c>
+      <c r="B212" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2">
       <c r="A213" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="214" spans="1:1">
+        <v>424</v>
+      </c>
+      <c r="B213" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2">
       <c r="A214" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="215" spans="1:1">
+        <v>426</v>
+      </c>
+      <c r="B214" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2">
       <c r="A215" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="216" spans="1:1">
+        <v>428</v>
+      </c>
+      <c r="B215" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2">
       <c r="A216" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="217" spans="1:1">
+        <v>430</v>
+      </c>
+      <c r="B216" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2">
       <c r="A217" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="218" spans="1:1">
+        <v>432</v>
+      </c>
+      <c r="B217" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2">
       <c r="A218" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:1">
+        <v>434</v>
+      </c>
+      <c r="B218" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2">
       <c r="A219" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="220" spans="1:1">
+        <v>436</v>
+      </c>
+      <c r="B219" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2">
       <c r="A220" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="221" spans="1:1">
+        <v>438</v>
+      </c>
+      <c r="B220" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2">
       <c r="A221" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="222" spans="1:1">
+        <v>440</v>
+      </c>
+      <c r="B221" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2">
       <c r="A222" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="223" spans="1:1">
+        <v>442</v>
+      </c>
+      <c r="B222" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2">
       <c r="A223" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="224" spans="1:1">
+        <v>444</v>
+      </c>
+      <c r="B223" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2">
       <c r="A224" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="225" spans="1:1">
+        <v>446</v>
+      </c>
+      <c r="B224" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2">
       <c r="A225" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="226" spans="1:1">
+        <v>448</v>
+      </c>
+      <c r="B225" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2">
       <c r="A226" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="227" spans="1:1">
+        <v>450</v>
+      </c>
+      <c r="B226" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2">
       <c r="A227" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="228" spans="1:1">
+        <v>452</v>
+      </c>
+      <c r="B227" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2">
       <c r="A228" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="229" spans="1:1">
+        <v>454</v>
+      </c>
+      <c r="B228" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2">
       <c r="A229" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="230" spans="1:1">
+        <v>456</v>
+      </c>
+      <c r="B229" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2">
       <c r="A230" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="231" spans="1:1">
+        <v>458</v>
+      </c>
+      <c r="B230" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2">
       <c r="A231" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="232" spans="1:1">
+        <v>460</v>
+      </c>
+      <c r="B231" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2">
       <c r="A232" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="233" spans="1:1">
+        <v>462</v>
+      </c>
+      <c r="B232" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2">
       <c r="A233" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="234" spans="1:1">
+        <v>464</v>
+      </c>
+      <c r="B233" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2">
       <c r="A234" t="s">
-        <v>233</v>
-      </c>
-    </row>
-    <row r="235" spans="1:1">
+        <v>466</v>
+      </c>
+      <c r="B234" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2">
       <c r="A235" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="236" spans="1:1">
+        <v>468</v>
+      </c>
+      <c r="B235" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2">
       <c r="A236" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="237" spans="1:1">
+        <v>470</v>
+      </c>
+      <c r="B236" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2">
       <c r="A237" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="238" spans="1:1">
+        <v>472</v>
+      </c>
+      <c r="B237" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2">
       <c r="A238" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="239" spans="1:1">
+        <v>474</v>
+      </c>
+      <c r="B238" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2">
       <c r="A239" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="240" spans="1:1">
+        <v>476</v>
+      </c>
+      <c r="B239" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2">
       <c r="A240" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="241" spans="1:1">
+        <v>478</v>
+      </c>
+      <c r="B240" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2">
       <c r="A241" t="s">
-        <v>240</v>
-      </c>
-    </row>
-    <row r="242" spans="1:1">
+        <v>480</v>
+      </c>
+      <c r="B241" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2">
       <c r="A242" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="243" spans="1:1">
+        <v>482</v>
+      </c>
+      <c r="B242" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2">
       <c r="A243" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="244" spans="1:1">
+        <v>484</v>
+      </c>
+      <c r="B243" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2">
       <c r="A244" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="245" spans="1:1">
+        <v>486</v>
+      </c>
+      <c r="B244" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2">
       <c r="A245" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="246" spans="1:1">
+        <v>488</v>
+      </c>
+      <c r="B245" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2">
       <c r="A246" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="247" spans="1:1">
+        <v>490</v>
+      </c>
+      <c r="B246" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2">
       <c r="A247" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="248" spans="1:1">
+        <v>492</v>
+      </c>
+      <c r="B247" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2">
       <c r="A248" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="249" spans="1:1">
+        <v>494</v>
+      </c>
+      <c r="B248" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2">
       <c r="A249" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="250" spans="1:1">
+        <v>496</v>
+      </c>
+      <c r="B249" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2">
       <c r="A250" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="251" spans="1:1">
+        <v>498</v>
+      </c>
+      <c r="B250" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2">
       <c r="A251" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="252" spans="1:1">
+        <v>500</v>
+      </c>
+      <c r="B251" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2">
       <c r="A252" t="s">
-        <v>251</v>
-      </c>
-    </row>
-    <row r="253" spans="1:1">
+        <v>502</v>
+      </c>
+      <c r="B252" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2">
       <c r="A253" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="254" spans="1:1">
+        <v>504</v>
+      </c>
+      <c r="B253" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2">
       <c r="A254" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="255" spans="1:1">
+        <v>506</v>
+      </c>
+      <c r="B254" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2">
       <c r="A255" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="256" spans="1:1">
+        <v>508</v>
+      </c>
+      <c r="B255" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2">
       <c r="A256" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="257" spans="1:1">
+        <v>510</v>
+      </c>
+      <c r="B256" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2">
       <c r="A257" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="258" spans="1:1">
+        <v>512</v>
+      </c>
+      <c r="B257" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2">
       <c r="A258" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="259" spans="1:1">
+        <v>514</v>
+      </c>
+      <c r="B258" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2">
       <c r="A259" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="260" spans="1:1">
+        <v>516</v>
+      </c>
+      <c r="B259" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2">
       <c r="A260" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="261" spans="1:1">
+        <v>518</v>
+      </c>
+      <c r="B260" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2">
       <c r="A261" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="262" spans="1:1">
+        <v>520</v>
+      </c>
+      <c r="B261" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2">
       <c r="A262" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="263" spans="1:1">
+        <v>522</v>
+      </c>
+      <c r="B262" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2">
       <c r="A263" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="264" spans="1:1">
+        <v>524</v>
+      </c>
+      <c r="B263" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2">
       <c r="A264" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="265" spans="1:1">
+        <v>526</v>
+      </c>
+      <c r="B264" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2">
       <c r="A265" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="266" spans="1:1">
+        <v>528</v>
+      </c>
+      <c r="B265" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2">
       <c r="A266" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="267" spans="1:1">
+        <v>530</v>
+      </c>
+      <c r="B266" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2">
       <c r="A267" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="268" spans="1:1">
+        <v>532</v>
+      </c>
+      <c r="B267" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2">
       <c r="A268" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="269" spans="1:1">
+        <v>534</v>
+      </c>
+      <c r="B268" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2">
       <c r="A269" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="270" spans="1:1">
+        <v>536</v>
+      </c>
+      <c r="B269" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2">
       <c r="A270" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="271" spans="1:1">
+        <v>538</v>
+      </c>
+      <c r="B270" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2">
       <c r="A271" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="272" spans="1:1">
+        <v>540</v>
+      </c>
+      <c r="B271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2">
       <c r="A272" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="273" spans="1:1">
+        <v>542</v>
+      </c>
+      <c r="B272" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2">
       <c r="A273" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="274" spans="1:1">
+        <v>544</v>
+      </c>
+      <c r="B273" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2">
       <c r="A274" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="275" spans="1:1">
+        <v>546</v>
+      </c>
+      <c r="B274" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2">
       <c r="A275" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="276" spans="1:1">
+        <v>548</v>
+      </c>
+      <c r="B275" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2">
       <c r="A276" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="277" spans="1:1">
+        <v>550</v>
+      </c>
+      <c r="B276" t="s">
+        <v>551</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2">
       <c r="A277" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="278" spans="1:1">
+        <v>552</v>
+      </c>
+      <c r="B277" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2">
       <c r="A278" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="279" spans="1:1">
+        <v>554</v>
+      </c>
+      <c r="B278" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2">
       <c r="A279" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="280" spans="1:1">
+        <v>556</v>
+      </c>
+      <c r="B279" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2">
       <c r="A280" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="281" spans="1:1">
+        <v>558</v>
+      </c>
+      <c r="B280" t="s">
+        <v>559</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2">
       <c r="A281" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="282" spans="1:1">
+        <v>560</v>
+      </c>
+      <c r="B281" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2">
       <c r="A282" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="283" spans="1:1">
+        <v>562</v>
+      </c>
+      <c r="B282" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2">
       <c r="A283" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="284" spans="1:1">
+        <v>564</v>
+      </c>
+      <c r="B283" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2">
       <c r="A284" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="285" spans="1:1">
+        <v>566</v>
+      </c>
+      <c r="B284" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2">
       <c r="A285" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="286" spans="1:1">
+        <v>568</v>
+      </c>
+      <c r="B285" t="s">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2">
       <c r="A286" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="287" spans="1:1">
+        <v>570</v>
+      </c>
+      <c r="B286" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2">
       <c r="A287" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="288" spans="1:1">
+        <v>572</v>
+      </c>
+      <c r="B287" t="s">
+        <v>573</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2">
       <c r="A288" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="289" spans="1:1">
+        <v>574</v>
+      </c>
+      <c r="B288" t="s">
+        <v>575</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2">
       <c r="A289" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="290" spans="1:1">
+        <v>576</v>
+      </c>
+      <c r="B289" t="s">
+        <v>577</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2">
       <c r="A290" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="291" spans="1:1">
+        <v>578</v>
+      </c>
+      <c r="B290" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2">
       <c r="A291" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="292" spans="1:1">
+        <v>580</v>
+      </c>
+      <c r="B291" t="s">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2">
       <c r="A292" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="293" spans="1:1">
+        <v>582</v>
+      </c>
+      <c r="B292" t="s">
+        <v>583</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2">
       <c r="A293" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="294" spans="1:1">
+        <v>584</v>
+      </c>
+      <c r="B293" t="s">
+        <v>585</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2">
       <c r="A294" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="295" spans="1:1">
+        <v>586</v>
+      </c>
+      <c r="B294" t="s">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2">
       <c r="A295" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="296" spans="1:1">
+        <v>588</v>
+      </c>
+      <c r="B295" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2">
       <c r="A296" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="297" spans="1:1">
+        <v>590</v>
+      </c>
+      <c r="B296" t="s">
+        <v>591</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2">
       <c r="A297" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="298" spans="1:1">
+        <v>592</v>
+      </c>
+      <c r="B297" t="s">
+        <v>593</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2">
       <c r="A298" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="299" spans="1:1">
+        <v>594</v>
+      </c>
+      <c r="B298" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2">
       <c r="A299" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="300" spans="1:1">
+        <v>596</v>
+      </c>
+      <c r="B299" t="s">
+        <v>597</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2">
       <c r="A300" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="301" spans="1:1">
+        <v>598</v>
+      </c>
+      <c r="B300" t="s">
+        <v>599</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2">
       <c r="A301" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="302" spans="1:1">
+        <v>600</v>
+      </c>
+      <c r="B301" t="s">
+        <v>601</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2">
       <c r="A302" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="303" spans="1:1">
+        <v>602</v>
+      </c>
+      <c r="B302" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2">
       <c r="A303" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="304" spans="1:1">
+        <v>604</v>
+      </c>
+      <c r="B303" t="s">
+        <v>605</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2">
       <c r="A304" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="305" spans="1:1">
+        <v>606</v>
+      </c>
+      <c r="B304" t="s">
+        <v>607</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2">
       <c r="A305" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="306" spans="1:1">
+        <v>608</v>
+      </c>
+      <c r="B305" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2">
       <c r="A306" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="307" spans="1:1">
+        <v>610</v>
+      </c>
+      <c r="B306" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2">
       <c r="A307" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="308" spans="1:1">
+        <v>612</v>
+      </c>
+      <c r="B307" t="s">
+        <v>613</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
       <c r="A308" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="309" spans="1:1">
+        <v>614</v>
+      </c>
+      <c r="B308" t="s">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
       <c r="A309" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="310" spans="1:1">
+        <v>616</v>
+      </c>
+      <c r="B309" t="s">
+        <v>617</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
       <c r="A310" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="311" spans="1:1">
+        <v>618</v>
+      </c>
+      <c r="B310" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
       <c r="A311" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="312" spans="1:1">
+        <v>620</v>
+      </c>
+      <c r="B311" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
       <c r="A312" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="313" spans="1:1">
+        <v>622</v>
+      </c>
+      <c r="B312" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
       <c r="A313" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="314" spans="1:1">
+        <v>624</v>
+      </c>
+      <c r="B313" t="s">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
       <c r="A314" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="315" spans="1:1">
+        <v>626</v>
+      </c>
+      <c r="B314" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
       <c r="A315" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="316" spans="1:1">
+        <v>628</v>
+      </c>
+      <c r="B315" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
       <c r="A316" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="317" spans="1:1">
+        <v>630</v>
+      </c>
+      <c r="B316" t="s">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2">
       <c r="A317" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="318" spans="1:1">
+        <v>632</v>
+      </c>
+      <c r="B317" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2">
       <c r="A318" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="319" spans="1:1">
+        <v>634</v>
+      </c>
+      <c r="B318" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2">
       <c r="A319" t="s">
-        <v>318</v>
-      </c>
-    </row>
-    <row r="320" spans="1:1">
+        <v>636</v>
+      </c>
+      <c r="B319" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2">
       <c r="A320" t="s">
-        <v>319</v>
+        <v>638</v>
+      </c>
+      <c r="B320" t="s">
+        <v>639</v>
       </c>
     </row>
   </sheetData>
